--- a/datamining/final_data/sorted1999_nltk.xlsx
+++ b/datamining/final_data/sorted1999_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AGE2"/>
+  <dimension ref="A1:AFB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,477 +472,477 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>editor</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>students</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>social</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>think</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>emotional</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>think</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>intelligence</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>child</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>intelligence</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>editor</t>
+          <t>assessment</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>assessment</t>
+          <t>development</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>young</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>model</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>homework</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>children</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>homework</t>
+          <t>crisis</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>manufactured</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>crisis</t>
+          <t>learners</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>manufactured</t>
+          <t>anthology</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>psychometric</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>learners</t>
+          <t>cognitive</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>psychometric</t>
+          <t>issues</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>anthology</t>
+          <t>intellectual</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>cognitive</t>
+          <t>education</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>study</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>issues</t>
+          <t>crystallizing</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>intellectual</t>
+          <t>articles</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
+          <t>collection</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>teaching</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
           <t>giftedness</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>experience</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>study</t>
-        </is>
-      </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
+          <t>promise</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>theories</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>context</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
           <t>historical</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>context</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>education</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>crystallizing</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>perspectives</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>theories</t>
-        </is>
-      </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>promise</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>studies</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>prodigy</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>studies</t>
+          <t>educational</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>prodigy</t>
+          <t>'s</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>teaching</t>
+          <t>implications</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>articles</t>
+          <t>women</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>collection</t>
+          <t>grouping</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>'s</t>
+          <t>kindergarten</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>analytic</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>implications</t>
+          <t>abilities</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>factor</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>abilities</t>
+          <t>research</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>analytic</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>scores</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>grouping</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>kindergarten</t>
+          <t>female</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>factor</t>
+          <t>behavior</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>discover</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>program</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>discover</t>
+          <t>survey</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>scores</t>
+          <t>diverse</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>human</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>behavior</t>
+          <t>phenomenon</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>diverse</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>survey</t>
+          <t>life</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>academically</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>phenomenon</t>
+          <t>terman</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>life</t>
+          <t>may</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>cluster</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>musical</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>terman</t>
+          <t>article</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>preservice</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>academically</t>
+          <t>attitudes</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>preservice</t>
+          <t>using</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>attitudes</t>
+          <t>consultation</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>search</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>cluster</t>
+          <t>analysis</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>using</t>
+          <t>researchers</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>musical</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>analysis</t>
+          <t>traditional</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>search</t>
+          <t>elementary</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>consultation</t>
+          <t>achievement</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>traditional</t>
+          <t>schools</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>elementary</t>
+          <t>cbcl</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>achievement</t>
+          <t>ttct</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>researchers</t>
+          <t>needs</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>schools</t>
+          <t>small</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>cbcl</t>
+          <t>theory</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>ttct</t>
+          <t>intelligences</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>alternative</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>needs</t>
+          <t>educators</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>groups</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>process</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>intelligences</t>
+          <t>variables</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>alternative</t>
+          <t>identified</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>theory</t>
+          <t>ideas</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>groups</t>
+          <t>practices</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>educators</t>
+          <t>academic</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
@@ -952,137 +952,137 @@
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>ideas</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>two</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>academic</t>
+          <t>test</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>variables</t>
+          <t>impact</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>practices</t>
+          <t>youth</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>identified</t>
+          <t>searches</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>explore</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>impact</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>youth</t>
+          <t>longitudinal</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>interventions</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>designed</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>interventions</t>
+          <t>new</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>preliminary</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>explore</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>longitudinal</t>
+          <t>sensitive</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>searches</t>
+          <t>identifying</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
+          <t>periods</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>solving</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>effects</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
           <t>psychological</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>identifying</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>effects</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>periods</t>
-        </is>
-      </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>sensitive</t>
+          <t>norms</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>designed</t>
+          <t>good</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>solving</t>
+          <t>however</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>norms</t>
+          <t>use</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
@@ -1092,922 +1092,922 @@
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>frequent</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>military</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>challenges</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>rather</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>relocations</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>varying</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
           <t>qualitative</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>level</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>creative</t>
-        </is>
-      </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>challenges</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>student</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
-        <is>
-          <t>however</t>
-        </is>
-      </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>moving</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>participants</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
-        <is>
-          <t>good</t>
-        </is>
-      </c>
-      <c r="EK1" s="1" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="EL1" s="1" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="EM1" s="1" t="inlineStr">
-        <is>
-          <t>use</t>
-        </is>
-      </c>
-      <c r="EN1" s="1" t="inlineStr">
-        <is>
-          <t>preliminary</t>
-        </is>
-      </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>models</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>discussion</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>performance</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>well</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>toward</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
-        <is>
-          <t>work</t>
-        </is>
-      </c>
-      <c r="EQ1" s="1" t="inlineStr">
-        <is>
-          <t>models</t>
-        </is>
-      </c>
-      <c r="ER1" s="1" t="inlineStr">
-        <is>
-          <t>rather</t>
-        </is>
-      </c>
-      <c r="ES1" s="1" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="ET1" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="EU1" s="1" t="inlineStr">
-        <is>
-          <t>frequent</t>
-        </is>
-      </c>
-      <c r="EV1" s="1" t="inlineStr">
-        <is>
-          <t>military</t>
-        </is>
-      </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
+          <t>involved</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>criteria</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>summer</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>relationship</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
           <t>serve</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
-        <is>
-          <t>summer</t>
-        </is>
-      </c>
-      <c r="EY1" s="1" t="inlineStr">
-        <is>
-          <t>moving</t>
-        </is>
-      </c>
-      <c r="EZ1" s="1" t="inlineStr">
-        <is>
-          <t>criteria</t>
-        </is>
-      </c>
-      <c r="FA1" s="1" t="inlineStr">
-        <is>
-          <t>varying</t>
-        </is>
-      </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>relocations</t>
+          <t>torrance</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>minorities</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>disorders</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>predicted</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>promising</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>nature</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>programs</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>ability</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>found</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>within</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
           <t>procedure</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
-        <is>
-          <t>would</t>
-        </is>
-      </c>
-      <c r="FF1" s="1" t="inlineStr">
-        <is>
-          <t>found</t>
-        </is>
-      </c>
-      <c r="FG1" s="1" t="inlineStr">
-        <is>
-          <t>performance</t>
-        </is>
-      </c>
-      <c r="FH1" s="1" t="inlineStr">
-        <is>
-          <t>involved</t>
-        </is>
-      </c>
-      <c r="FI1" s="1" t="inlineStr">
-        <is>
-          <t>well</t>
-        </is>
-      </c>
-      <c r="FJ1" s="1" t="inlineStr">
-        <is>
-          <t>ability</t>
-        </is>
-      </c>
-      <c r="FK1" s="1" t="inlineStr">
-        <is>
-          <t>within</t>
-        </is>
-      </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>aspects</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>pedagogical</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>skills</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>transformational</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>play</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
-        <is>
-          <t>could</t>
-        </is>
-      </c>
-      <c r="FO1" s="1" t="inlineStr">
-        <is>
-          <t>national</t>
-        </is>
-      </c>
-      <c r="FP1" s="1" t="inlineStr">
-        <is>
-          <t>minorities</t>
-        </is>
-      </c>
-      <c r="FQ1" s="1" t="inlineStr">
-        <is>
-          <t>promising</t>
-        </is>
-      </c>
-      <c r="FR1" s="1" t="inlineStr">
-        <is>
-          <t>aspects</t>
-        </is>
-      </c>
-      <c r="FS1" s="1" t="inlineStr">
-        <is>
-          <t>disorders</t>
-        </is>
-      </c>
-      <c r="FT1" s="1" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="FU1" s="1" t="inlineStr">
-        <is>
-          <t>torrance</t>
-        </is>
-      </c>
-      <c r="FV1" s="1" t="inlineStr">
-        <is>
-          <t>predicted</t>
-        </is>
-      </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>relationship</t>
+          <t>also</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>among</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>transformational</t>
+          <t>conceptual</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>nature</t>
+          <t>multiple</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>explanations</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>affective</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>grouped</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>made</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>inner</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>recently</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>different</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>correlation</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>motivational</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
-        <is>
-          <t>grouped</t>
-        </is>
-      </c>
-      <c r="GD1" s="1" t="inlineStr">
-        <is>
-          <t>correlation</t>
-        </is>
-      </c>
-      <c r="GE1" s="1" t="inlineStr">
-        <is>
-          <t>conceptual</t>
-        </is>
-      </c>
-      <c r="GF1" s="1" t="inlineStr">
-        <is>
-          <t>affective</t>
-        </is>
-      </c>
-      <c r="GG1" s="1" t="inlineStr">
-        <is>
-          <t>also</t>
-        </is>
-      </c>
-      <c r="GH1" s="1" t="inlineStr">
-        <is>
-          <t>one</t>
-        </is>
-      </c>
-      <c r="GI1" s="1" t="inlineStr">
-        <is>
-          <t>stage</t>
-        </is>
-      </c>
-      <c r="GJ1" s="1" t="inlineStr">
-        <is>
-          <t>multiple</t>
-        </is>
-      </c>
-      <c r="GK1" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="GL1" s="1" t="inlineStr">
-        <is>
-          <t>made</t>
-        </is>
-      </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>information</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>different</t>
+          <t>genius</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>genetic</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>although</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
           <t>focus</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
-        <is>
-          <t>explanations</t>
-        </is>
-      </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>measures</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
-        <is>
-          <t>recently</t>
-        </is>
-      </c>
-      <c r="GS1" s="1" t="inlineStr">
-        <is>
-          <t>inner</t>
-        </is>
-      </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>instruction</t>
+          <t>used</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>although</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>genetic</t>
+          <t>people</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>investigation</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>used</t>
+          <t>five</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>information</t>
+          <t>precocity</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>genius</t>
+          <t>achieving</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
+          <t>three</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>identify</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>based</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>leaders</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
           <t>adult</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
-        <is>
-          <t>people</t>
-        </is>
-      </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>findings</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>reported</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>results</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>beliefs</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>quantitative</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
-        <is>
-          <t>beliefs</t>
-        </is>
-      </c>
-      <c r="HF1" s="1" t="inlineStr">
-        <is>
-          <t>three</t>
-        </is>
-      </c>
-      <c r="HG1" s="1" t="inlineStr">
-        <is>
-          <t>findings</t>
-        </is>
-      </c>
-      <c r="HH1" s="1" t="inlineStr">
-        <is>
-          <t>leaders</t>
-        </is>
-      </c>
-      <c r="HI1" s="1" t="inlineStr">
-        <is>
-          <t>achieving</t>
-        </is>
-      </c>
-      <c r="HJ1" s="1" t="inlineStr">
-        <is>
-          <t>investigation</t>
-        </is>
-      </c>
-      <c r="HK1" s="1" t="inlineStr">
-        <is>
-          <t>results</t>
-        </is>
-      </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>precocity</t>
+          <t>proposed</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
+          <t>ereative</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>previously</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>programming</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>providing</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>resource</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>services</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>inclusive</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>discusses</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>encounter</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
           <t>directly</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="HO1" s="1" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="HP1" s="1" t="inlineStr">
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>measure</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>grounded</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>evident</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
-        <is>
-          <t>resource</t>
-        </is>
-      </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>advantages</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>concludes</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>consultant</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
         <is>
           <t>unitary</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>applied</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>typically</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>eighth</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>first</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
-        <is>
-          <t>providing</t>
-        </is>
-      </c>
-      <c r="HU1" s="1" t="inlineStr">
-        <is>
-          <t>programming</t>
-        </is>
-      </c>
-      <c r="HV1" s="1" t="inlineStr">
-        <is>
-          <t>previously</t>
-        </is>
-      </c>
-      <c r="HW1" s="1" t="inlineStr">
-        <is>
-          <t>proposed</t>
-        </is>
-      </c>
-      <c r="HX1" s="1" t="inlineStr">
-        <is>
-          <t>advantages</t>
-        </is>
-      </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>today</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>taking</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
-        <is>
-          <t>concludes</t>
-        </is>
-      </c>
-      <c r="IA1" s="1" t="inlineStr">
-        <is>
-          <t>consultant</t>
-        </is>
-      </c>
-      <c r="IB1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>graders</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
-        <is>
-          <t>discusses</t>
-        </is>
-      </c>
-      <c r="ID1" s="1" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="IE1" s="1" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="IF1" s="1" t="inlineStr">
-        <is>
-          <t>inclusive</t>
-        </is>
-      </c>
-      <c r="IG1" s="1" t="inlineStr">
-        <is>
-          <t>ereative</t>
-        </is>
-      </c>
-      <c r="IH1" s="1" t="inlineStr">
-        <is>
-          <t>services</t>
-        </is>
-      </c>
-      <c r="II1" s="1" t="inlineStr">
-        <is>
-          <t>today</t>
-        </is>
-      </c>
-      <c r="IJ1" s="1" t="inlineStr">
-        <is>
-          <t>encounter</t>
-        </is>
-      </c>
-      <c r="IK1" s="1" t="inlineStr">
-        <is>
-          <t>reported</t>
-        </is>
-      </c>
-      <c r="IL1" s="1" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="IM1" s="1" t="inlineStr">
-        <is>
-          <t>measure</t>
-        </is>
-      </c>
-      <c r="IN1" s="1" t="inlineStr">
-        <is>
-          <t>eighth</t>
-        </is>
-      </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>grounded</t>
+          <t>activities</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>typically</t>
+          <t>specific</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>graders</t>
+          <t>living</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
+          <t>understanding</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
           <t>professional</t>
         </is>
       </c>
-      <c r="IS1" s="1" t="inlineStr">
-        <is>
-          <t>specific</t>
-        </is>
-      </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
+          <t>expectations</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>framework</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>variety</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>appeared</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
           <t>strategies</t>
         </is>
       </c>
-      <c r="IU1" s="1" t="inlineStr">
-        <is>
-          <t>based</t>
-        </is>
-      </c>
-      <c r="IV1" s="1" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="IW1" s="1" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="IX1" s="1" t="inlineStr">
-        <is>
-          <t>appeared</t>
-        </is>
-      </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
+          <t>included</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
           <t>effect</t>
         </is>
       </c>
-      <c r="IZ1" s="1" t="inlineStr">
-        <is>
-          <t>understanding</t>
-        </is>
-      </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>five</t>
+          <t>describe</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>living</t>
+          <t>certain</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>variety</t>
+          <t>upon</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>included</t>
+          <t>organizational</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>identify</t>
+          <t>gardner</t>
         </is>
       </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
+          <t>responses</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>culturally</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
           <t>years</t>
         </is>
       </c>
-      <c r="JG1" s="1" t="inlineStr">
-        <is>
-          <t>responses</t>
-        </is>
-      </c>
-      <c r="JH1" s="1" t="inlineStr">
-        <is>
-          <t>organizational</t>
-        </is>
-      </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
+          <t>ways</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>subsequent</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
           <t>grade</t>
         </is>
       </c>
-      <c r="JJ1" s="1" t="inlineStr">
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>reveal</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>achievements</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
         <is>
           <t>key</t>
         </is>
       </c>
-      <c r="JK1" s="1" t="inlineStr">
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>technique</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>i.e.</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>represented</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>conducted</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
         <is>
           <t>group</t>
         </is>
       </c>
-      <c r="JL1" s="1" t="inlineStr">
-        <is>
-          <t>ways</t>
-        </is>
-      </c>
-      <c r="JM1" s="1" t="inlineStr">
-        <is>
-          <t>activities</t>
-        </is>
-      </c>
-      <c r="JN1" s="1" t="inlineStr">
-        <is>
-          <t>upon</t>
-        </is>
-      </c>
-      <c r="JO1" s="1" t="inlineStr">
-        <is>
-          <t>subsequent</t>
-        </is>
-      </c>
-      <c r="JP1" s="1" t="inlineStr">
-        <is>
-          <t>reveal</t>
-        </is>
-      </c>
-      <c r="JQ1" s="1" t="inlineStr">
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>little</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
         <is>
           <t>instructional</t>
         </is>
       </c>
-      <c r="JR1" s="1" t="inlineStr">
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
+          <t>increase</t>
+        </is>
+      </c>
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>statistically</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>tests</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>basis</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>similar</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>often</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>describes</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
         <is>
           <t>experiences</t>
         </is>
       </c>
-      <c r="JS1" s="1" t="inlineStr">
-        <is>
-          <t>achievements</t>
-        </is>
-      </c>
-      <c r="JT1" s="1" t="inlineStr">
-        <is>
-          <t>framework</t>
-        </is>
-      </c>
-      <c r="JU1" s="1" t="inlineStr">
-        <is>
-          <t>increase</t>
-        </is>
-      </c>
-      <c r="JV1" s="1" t="inlineStr">
-        <is>
-          <t>conducted</t>
-        </is>
-      </c>
-      <c r="JW1" s="1" t="inlineStr">
-        <is>
-          <t>expectations</t>
-        </is>
-      </c>
-      <c r="JX1" s="1" t="inlineStr">
-        <is>
-          <t>little</t>
-        </is>
-      </c>
-      <c r="JY1" s="1" t="inlineStr">
-        <is>
-          <t>certain</t>
-        </is>
-      </c>
-      <c r="JZ1" s="1" t="inlineStr">
-        <is>
-          <t>often</t>
-        </is>
-      </c>
-      <c r="KA1" s="1" t="inlineStr">
-        <is>
-          <t>i.e.</t>
-        </is>
-      </c>
-      <c r="KB1" s="1" t="inlineStr">
-        <is>
-          <t>describes</t>
-        </is>
-      </c>
-      <c r="KC1" s="1" t="inlineStr">
-        <is>
-          <t>gardner</t>
-        </is>
-      </c>
-      <c r="KD1" s="1" t="inlineStr">
+      <c r="KE1" s="1" t="inlineStr">
+        <is>
+          <t>happens</t>
+        </is>
+      </c>
+      <c r="KF1" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
+        <is>
+          <t>effectiveness</t>
+        </is>
+      </c>
+      <c r="KI1" s="1" t="inlineStr">
+        <is>
+          <t>differences</t>
+        </is>
+      </c>
+      <c r="KJ1" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="KK1" s="1" t="inlineStr">
         <is>
           <t>important</t>
         </is>
       </c>
-      <c r="KE1" s="1" t="inlineStr">
-        <is>
-          <t>age</t>
-        </is>
-      </c>
-      <c r="KF1" s="1" t="inlineStr">
-        <is>
-          <t>happens</t>
-        </is>
-      </c>
-      <c r="KG1" s="1" t="inlineStr">
-        <is>
-          <t>part</t>
-        </is>
-      </c>
-      <c r="KH1" s="1" t="inlineStr">
-        <is>
-          <t>differences</t>
-        </is>
-      </c>
-      <c r="KI1" s="1" t="inlineStr">
+      <c r="KL1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="KM1" s="1" t="inlineStr">
+        <is>
+          <t>become</t>
+        </is>
+      </c>
+      <c r="KN1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="KO1" s="1" t="inlineStr">
+        <is>
+          <t>analyses</t>
+        </is>
+      </c>
+      <c r="KP1" s="1" t="inlineStr">
+        <is>
+          <t>latter</t>
+        </is>
+      </c>
+      <c r="KQ1" s="1" t="inlineStr">
+        <is>
+          <t>screening</t>
+        </is>
+      </c>
+      <c r="KR1" s="1" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="KS1" s="1" t="inlineStr">
         <is>
           <t>perspective</t>
         </is>
       </c>
-      <c r="KJ1" s="1" t="inlineStr">
-        <is>
-          <t>general</t>
-        </is>
-      </c>
-      <c r="KK1" s="1" t="inlineStr">
-        <is>
-          <t>become</t>
-        </is>
-      </c>
-      <c r="KL1" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="KM1" s="1" t="inlineStr">
-        <is>
-          <t>address</t>
-        </is>
-      </c>
-      <c r="KN1" s="1" t="inlineStr">
-        <is>
-          <t>tests</t>
-        </is>
-      </c>
-      <c r="KO1" s="1" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="KP1" s="1" t="inlineStr">
-        <is>
-          <t>represented</t>
-        </is>
-      </c>
-      <c r="KQ1" s="1" t="inlineStr">
-        <is>
-          <t>similar</t>
-        </is>
-      </c>
-      <c r="KR1" s="1" t="inlineStr">
-        <is>
-          <t>screening</t>
-        </is>
-      </c>
-      <c r="KS1" s="1" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
       <c r="KT1" s="1" t="inlineStr">
         <is>
-          <t>analyses</t>
+          <t>inclusion</t>
         </is>
       </c>
       <c r="KU1" s="1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>accelerate</t>
         </is>
       </c>
       <c r="KV1" s="1" t="inlineStr">
         <is>
-          <t>describe</t>
+          <t>significant</t>
         </is>
       </c>
       <c r="KW1" s="1" t="inlineStr">
         <is>
-          <t>technique</t>
+          <t>differentiation</t>
         </is>
       </c>
       <c r="KX1" s="1" t="inlineStr">
         <is>
-          <t>culturally</t>
+          <t>extraordinary</t>
         </is>
       </c>
       <c r="KY1" s="1" t="inlineStr">
         <is>
-          <t>effectiveness</t>
+          <t>provide</t>
         </is>
       </c>
       <c r="KZ1" s="1" t="inlineStr">
         <is>
-          <t>statistically</t>
+          <t>comparison</t>
         </is>
       </c>
       <c r="LA1" s="1" t="inlineStr">
         <is>
-          <t>inclusion</t>
+          <t>compared</t>
         </is>
       </c>
       <c r="LB1" s="1" t="inlineStr">
         <is>
-          <t>provide</t>
+          <t>individuals</t>
         </is>
       </c>
       <c r="LC1" s="1" t="inlineStr">
         <is>
-          <t>accelerated</t>
+          <t>appropriate</t>
         </is>
       </c>
       <c r="LD1" s="1" t="inlineStr">
         <is>
-          <t>significant</t>
+          <t>picture</t>
         </is>
       </c>
       <c r="LE1" s="1" t="inlineStr">
@@ -2017,2732 +2017,2587 @@
       </c>
       <c r="LF1" s="1" t="inlineStr">
         <is>
-          <t>individuals</t>
+          <t>traditionally</t>
         </is>
       </c>
       <c r="LG1" s="1" t="inlineStr">
         <is>
-          <t>latter</t>
+          <t>presents</t>
         </is>
       </c>
       <c r="LH1" s="1" t="inlineStr">
         <is>
-          <t>basis</t>
+          <t>attended</t>
         </is>
       </c>
       <c r="LI1" s="1" t="inlineStr">
         <is>
-          <t>more</t>
+          <t>checklist</t>
         </is>
       </c>
       <c r="LJ1" s="1" t="inlineStr">
         <is>
-          <t>compared</t>
+          <t>degrees</t>
         </is>
       </c>
       <c r="LK1" s="1" t="inlineStr">
         <is>
-          <t>differentiation</t>
+          <t>difficulties</t>
         </is>
       </c>
       <c r="LL1" s="1" t="inlineStr">
         <is>
-          <t>traditionally</t>
+          <t>course</t>
         </is>
       </c>
       <c r="LM1" s="1" t="inlineStr">
         <is>
-          <t>appropriate</t>
+          <t>base</t>
         </is>
       </c>
       <c r="LN1" s="1" t="inlineStr">
         <is>
-          <t>comparison</t>
+          <t>admittance</t>
         </is>
       </c>
       <c r="LO1" s="1" t="inlineStr">
         <is>
-          <t>attended</t>
+          <t>problems</t>
         </is>
       </c>
       <c r="LP1" s="1" t="inlineStr">
         <is>
-          <t>presents</t>
+          <t>e.g.</t>
         </is>
       </c>
       <c r="LQ1" s="1" t="inlineStr">
         <is>
-          <t>extraordinary</t>
+          <t>experienced</t>
         </is>
       </c>
       <c r="LR1" s="1" t="inlineStr">
         <is>
-          <t>picture</t>
+          <t>provided</t>
         </is>
       </c>
       <c r="LS1" s="1" t="inlineStr">
         <is>
+          <t>cause</t>
+        </is>
+      </c>
+      <c r="LT1" s="1" t="inlineStr">
+        <is>
+          <t>families</t>
+        </is>
+      </c>
+      <c r="LU1" s="1" t="inlineStr">
+        <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="LV1" s="1" t="inlineStr">
+        <is>
+          <t>talents</t>
+        </is>
+      </c>
+      <c r="LW1" s="1" t="inlineStr">
+        <is>
+          <t>synthesised</t>
+        </is>
+      </c>
+      <c r="LX1" s="1" t="inlineStr">
+        <is>
+          <t>subotnik</t>
+        </is>
+      </c>
+      <c r="LY1" s="1" t="inlineStr">
+        <is>
+          <t>spheres</t>
+        </is>
+      </c>
+      <c r="LZ1" s="1" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="MA1" s="1" t="inlineStr">
+        <is>
+          <t>scholars</t>
+        </is>
+      </c>
+      <c r="MB1" s="1" t="inlineStr">
+        <is>
+          <t>remarkable</t>
+        </is>
+      </c>
+      <c r="MC1" s="1" t="inlineStr">
+        <is>
+          <t>psychologists</t>
+        </is>
+      </c>
+      <c r="MD1" s="1" t="inlineStr">
+        <is>
+          <t>noble</t>
+        </is>
+      </c>
+      <c r="ME1" s="1" t="inlineStr">
+        <is>
+          <t>known</t>
+        </is>
+      </c>
+      <c r="MF1" s="1" t="inlineStr">
+        <is>
+          <t>innovative</t>
+        </is>
+      </c>
+      <c r="MG1" s="1" t="inlineStr">
+        <is>
+          <t>influence</t>
+        </is>
+      </c>
+      <c r="MH1" s="1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="MI1" s="1" t="inlineStr">
+        <is>
+          <t>gifts</t>
+        </is>
+      </c>
+      <c r="MJ1" s="1" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="MK1" s="1" t="inlineStr">
+        <is>
+          <t>females</t>
+        </is>
+      </c>
+      <c r="ML1" s="1" t="inlineStr">
+        <is>
+          <t>domains</t>
+        </is>
+      </c>
+      <c r="MM1" s="1" t="inlineStr">
+        <is>
+          <t>cultural</t>
+        </is>
+      </c>
+      <c r="MN1" s="1" t="inlineStr">
+        <is>
+          <t>coping</t>
+        </is>
+      </c>
+      <c r="MO1" s="1" t="inlineStr">
+        <is>
           <t>contributed</t>
         </is>
       </c>
-      <c r="LT1" s="1" t="inlineStr">
-        <is>
-          <t>provided</t>
-        </is>
-      </c>
-      <c r="LU1" s="1" t="inlineStr">
+      <c r="MP1" s="1" t="inlineStr">
+        <is>
+          <t>common</t>
+        </is>
+      </c>
+      <c r="MQ1" s="1" t="inlineStr">
+        <is>
+          <t>collectively</t>
+        </is>
+      </c>
+      <c r="MR1" s="1" t="inlineStr">
+        <is>
+          <t>backgrounds</t>
+        </is>
+      </c>
+      <c r="MS1" s="1" t="inlineStr">
+        <is>
+          <t>aspire</t>
+        </is>
+      </c>
+      <c r="MT1" s="1" t="inlineStr">
+        <is>
+          <t>arnold</t>
+        </is>
+      </c>
+      <c r="MU1" s="1" t="inlineStr">
+        <is>
+          <t>addressed</t>
+        </is>
+      </c>
+      <c r="MV1" s="1" t="inlineStr">
+        <is>
+          <t>actualise</t>
+        </is>
+      </c>
+      <c r="MW1" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="MX1" s="1" t="inlineStr">
+        <is>
+          <t>thine</t>
+        </is>
+      </c>
+      <c r="MY1" s="1" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="MZ1" s="1" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="NA1" s="1" t="inlineStr">
+        <is>
+          <t>inconsistencies</t>
+        </is>
+      </c>
+      <c r="NB1" s="1" t="inlineStr">
+        <is>
+          <t>long-term</t>
+        </is>
+      </c>
+      <c r="NC1" s="1" t="inlineStr">
+        <is>
+          <t>perceptions</t>
+        </is>
+      </c>
+      <c r="ND1" s="1" t="inlineStr">
+        <is>
+          <t>widely</t>
+        </is>
+      </c>
+      <c r="NE1" s="1" t="inlineStr">
+        <is>
+          <t>presently</t>
+        </is>
+      </c>
+      <c r="NF1" s="1" t="inlineStr">
+        <is>
+          <t>relocation</t>
+        </is>
+      </c>
+      <c r="NG1" s="1" t="inlineStr">
+        <is>
+          <t>term</t>
+        </is>
+      </c>
+      <c r="NH1" s="1" t="inlineStr">
+        <is>
+          <t>investigate</t>
+        </is>
+      </c>
+      <c r="NI1" s="1" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="NJ1" s="1" t="inlineStr">
+        <is>
+          <t>hindered</t>
+        </is>
+      </c>
+      <c r="NK1" s="1" t="inlineStr">
+        <is>
+          <t>suburban</t>
+        </is>
+      </c>
+      <c r="NL1" s="1" t="inlineStr">
+        <is>
+          <t>frustration</t>
+        </is>
+      </c>
+      <c r="NM1" s="1" t="inlineStr">
         <is>
           <t>wide</t>
         </is>
       </c>
-      <c r="LV1" s="1" t="inlineStr">
-        <is>
-          <t>problems</t>
-        </is>
-      </c>
-      <c r="LW1" s="1" t="inlineStr">
-        <is>
-          <t>thine</t>
-        </is>
-      </c>
-      <c r="LX1" s="1" t="inlineStr">
-        <is>
-          <t>original</t>
-        </is>
-      </c>
-      <c r="LY1" s="1" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="LZ1" s="1" t="inlineStr">
-        <is>
-          <t>help</t>
-        </is>
-      </c>
-      <c r="MA1" s="1" t="inlineStr">
-        <is>
-          <t>talents</t>
-        </is>
-      </c>
-      <c r="MB1" s="1" t="inlineStr">
-        <is>
-          <t>girls</t>
-        </is>
-      </c>
-      <c r="MC1" s="1" t="inlineStr">
-        <is>
-          <t>synthesised</t>
-        </is>
-      </c>
-      <c r="MD1" s="1" t="inlineStr">
-        <is>
-          <t>influence</t>
-        </is>
-      </c>
-      <c r="ME1" s="1" t="inlineStr">
-        <is>
-          <t>innovative</t>
-        </is>
-      </c>
-      <c r="MF1" s="1" t="inlineStr">
-        <is>
-          <t>subotnik</t>
-        </is>
-      </c>
-      <c r="MG1" s="1" t="inlineStr">
-        <is>
-          <t>spheres</t>
-        </is>
-      </c>
-      <c r="MH1" s="1" t="inlineStr">
-        <is>
-          <t>self</t>
-        </is>
-      </c>
-      <c r="MI1" s="1" t="inlineStr">
-        <is>
-          <t>known</t>
-        </is>
-      </c>
-      <c r="MJ1" s="1" t="inlineStr">
-        <is>
-          <t>scholars</t>
-        </is>
-      </c>
-      <c r="MK1" s="1" t="inlineStr">
-        <is>
-          <t>remarkable</t>
-        </is>
-      </c>
-      <c r="ML1" s="1" t="inlineStr">
-        <is>
-          <t>psychologists</t>
-        </is>
-      </c>
-      <c r="MM1" s="1" t="inlineStr">
-        <is>
-          <t>gifts</t>
-        </is>
-      </c>
-      <c r="MN1" s="1" t="inlineStr">
-        <is>
-          <t>noble</t>
-        </is>
-      </c>
-      <c r="MO1" s="1" t="inlineStr">
-        <is>
-          <t>arnold</t>
-        </is>
-      </c>
-      <c r="MP1" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="MQ1" s="1" t="inlineStr">
-        <is>
-          <t>backgrounds</t>
-        </is>
-      </c>
-      <c r="MR1" s="1" t="inlineStr">
-        <is>
-          <t>aspire</t>
-        </is>
-      </c>
-      <c r="MS1" s="1" t="inlineStr">
-        <is>
-          <t>common</t>
-        </is>
-      </c>
-      <c r="MT1" s="1" t="inlineStr">
-        <is>
-          <t>collectively</t>
-        </is>
-      </c>
-      <c r="MU1" s="1" t="inlineStr">
-        <is>
-          <t>cultural</t>
-        </is>
-      </c>
-      <c r="MV1" s="1" t="inlineStr">
-        <is>
-          <t>actualise</t>
-        </is>
-      </c>
-      <c r="MW1" s="1" t="inlineStr">
-        <is>
-          <t>addressed</t>
-        </is>
-      </c>
-      <c r="MX1" s="1" t="inlineStr">
-        <is>
-          <t>coping</t>
-        </is>
-      </c>
-      <c r="MY1" s="1" t="inlineStr">
-        <is>
-          <t>domains</t>
-        </is>
-      </c>
-      <c r="MZ1" s="1" t="inlineStr">
-        <is>
-          <t>females</t>
-        </is>
-      </c>
-      <c r="NA1" s="1" t="inlineStr">
-        <is>
-          <t>checklist</t>
-        </is>
-      </c>
-      <c r="NB1" s="1" t="inlineStr">
+      <c r="NN1" s="1" t="inlineStr">
+        <is>
+          <t>types</t>
+        </is>
+      </c>
+      <c r="NO1" s="1" t="inlineStr">
         <is>
           <t>examined</t>
         </is>
       </c>
-      <c r="NC1" s="1" t="inlineStr">
-        <is>
-          <t>types</t>
-        </is>
-      </c>
-      <c r="ND1" s="1" t="inlineStr">
+      <c r="NP1" s="1" t="inlineStr">
+        <is>
+          <t>functioning</t>
+        </is>
+      </c>
+      <c r="NQ1" s="1" t="inlineStr">
+        <is>
+          <t>independence</t>
+        </is>
+      </c>
+      <c r="NR1" s="1" t="inlineStr">
+        <is>
+          <t>louisiana</t>
+        </is>
+      </c>
+      <c r="NS1" s="1" t="inlineStr">
+        <is>
+          <t>enable</t>
+        </is>
+      </c>
+      <c r="NT1" s="1" t="inlineStr">
+        <is>
+          <t>eminence</t>
+        </is>
+      </c>
+      <c r="NU1" s="1" t="inlineStr">
+        <is>
+          <t>working</t>
+        </is>
+      </c>
+      <c r="NV1" s="1" t="inlineStr">
+        <is>
+          <t>creativity</t>
+        </is>
+      </c>
+      <c r="NW1" s="1" t="inlineStr">
+        <is>
+          <t>underrepresentation</t>
+        </is>
+      </c>
+      <c r="NX1" s="1" t="inlineStr">
+        <is>
+          <t>contrary</t>
+        </is>
+      </c>
+      <c r="NY1" s="1" t="inlineStr">
+        <is>
+          <t>connecticut</t>
+        </is>
+      </c>
+      <c r="NZ1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="OA1" s="1" t="inlineStr">
+        <is>
+          <t>exists</t>
+        </is>
+      </c>
+      <c r="OB1" s="1" t="inlineStr">
+        <is>
+          <t>administered</t>
+        </is>
+      </c>
+      <c r="OC1" s="1" t="inlineStr">
+        <is>
+          <t>achenbach</t>
+        </is>
+      </c>
+      <c r="OD1" s="1" t="inlineStr">
+        <is>
+          <t>absence</t>
+        </is>
+      </c>
+      <c r="OE1" s="1" t="inlineStr">
         <is>
           <t>demonstrated</t>
         </is>
       </c>
-      <c r="NE1" s="1" t="inlineStr">
+      <c r="OF1" s="1" t="inlineStr">
+        <is>
+          <t>previous</t>
+        </is>
+      </c>
+      <c r="OG1" s="1" t="inlineStr">
+        <is>
+          <t>validity</t>
+        </is>
+      </c>
+      <c r="OH1" s="1" t="inlineStr">
+        <is>
+          <t>developed</t>
+        </is>
+      </c>
+      <c r="OI1" s="1" t="inlineStr">
+        <is>
+          <t>exploring</t>
+        </is>
+      </c>
+      <c r="OJ1" s="1" t="inlineStr">
         <is>
           <t>frequency</t>
         </is>
       </c>
-      <c r="NF1" s="1" t="inlineStr">
-        <is>
-          <t>exploring</t>
-        </is>
-      </c>
-      <c r="NG1" s="1" t="inlineStr">
-        <is>
-          <t>enable</t>
-        </is>
-      </c>
-      <c r="NH1" s="1" t="inlineStr">
+      <c r="OK1" s="1" t="inlineStr">
+        <is>
+          <t>diagnosing</t>
+        </is>
+      </c>
+      <c r="OL1" s="1" t="inlineStr">
+        <is>
+          <t>lesson</t>
+        </is>
+      </c>
+      <c r="OM1" s="1" t="inlineStr">
+        <is>
+          <t>partnership</t>
+        </is>
+      </c>
+      <c r="ON1" s="1" t="inlineStr">
+        <is>
+          <t>pre-adolescent</t>
+        </is>
+      </c>
+      <c r="OO1" s="1" t="inlineStr">
+        <is>
+          <t>relatively</t>
+        </is>
+      </c>
+      <c r="OP1" s="1" t="inlineStr">
+        <is>
+          <t>setting</t>
+        </is>
+      </c>
+      <c r="OQ1" s="1" t="inlineStr">
+        <is>
+          <t>settings</t>
+        </is>
+      </c>
+      <c r="OR1" s="1" t="inlineStr">
+        <is>
+          <t>teacher-directed</t>
+        </is>
+      </c>
+      <c r="OS1" s="1" t="inlineStr">
+        <is>
+          <t>developing</t>
+        </is>
+      </c>
+      <c r="OT1" s="1" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="OU1" s="1" t="inlineStr">
+        <is>
+          <t>videotape</t>
+        </is>
+      </c>
+      <c r="OV1" s="1" t="inlineStr">
+        <is>
+          <t>traced</t>
+        </is>
+      </c>
+      <c r="OW1" s="1" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="OX1" s="1" t="inlineStr">
+        <is>
+          <t>conceptualizing</t>
+        </is>
+      </c>
+      <c r="OY1" s="1" t="inlineStr">
+        <is>
+          <t>unrelated</t>
+        </is>
+      </c>
+      <c r="OZ1" s="1" t="inlineStr">
+        <is>
+          <t>transfer</t>
+        </is>
+      </c>
+      <c r="PA1" s="1" t="inlineStr">
+        <is>
+          <t>viable</t>
+        </is>
+      </c>
+      <c r="PB1" s="1" t="inlineStr">
+        <is>
+          <t>thinking</t>
+        </is>
+      </c>
+      <c r="PC1" s="1" t="inlineStr">
+        <is>
+          <t>superior</t>
+        </is>
+      </c>
+      <c r="PD1" s="1" t="inlineStr">
+        <is>
+          <t>slightly</t>
+        </is>
+      </c>
+      <c r="PE1" s="1" t="inlineStr">
+        <is>
+          <t>selection</t>
+        </is>
+      </c>
+      <c r="PF1" s="1" t="inlineStr">
+        <is>
+          <t>samples</t>
+        </is>
+      </c>
+      <c r="PG1" s="1" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="PH1" s="1" t="inlineStr">
+        <is>
+          <t>sure</t>
+        </is>
+      </c>
+      <c r="PI1" s="1" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="PJ1" s="1" t="inlineStr">
+        <is>
+          <t>1990c</t>
+        </is>
+      </c>
+      <c r="PK1" s="1" t="inlineStr">
+        <is>
+          <t>performance-based</t>
+        </is>
+      </c>
+      <c r="PL1" s="1" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="PM1" s="1" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
+      <c r="PN1" s="1" t="inlineStr">
+        <is>
+          <t>might</t>
+        </is>
+      </c>
+      <c r="PO1" s="1" t="inlineStr">
+        <is>
+          <t>assigned</t>
+        </is>
+      </c>
+      <c r="PP1" s="1" t="inlineStr">
+        <is>
+          <t>appraised</t>
+        </is>
+      </c>
+      <c r="PQ1" s="1" t="inlineStr">
+        <is>
+          <t>assisting</t>
+        </is>
+      </c>
+      <c r="PR1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
+      </c>
+      <c r="PS1" s="1" t="inlineStr">
+        <is>
+          <t>maker</t>
+        </is>
+      </c>
+      <c r="PT1" s="1" t="inlineStr">
+        <is>
+          <t>purposes</t>
+        </is>
+      </c>
+      <c r="PU1" s="1" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="PV1" s="1" t="inlineStr">
+        <is>
+          <t>consists</t>
+        </is>
+      </c>
+      <c r="PW1" s="1" t="inlineStr">
+        <is>
+          <t>logical-mathematical</t>
+        </is>
+      </c>
+      <c r="PX1" s="1" t="inlineStr">
+        <is>
+          <t>indicated</t>
+        </is>
+      </c>
+      <c r="PY1" s="1" t="inlineStr">
+        <is>
+          <t>spent</t>
+        </is>
+      </c>
+      <c r="PZ1" s="1" t="inlineStr">
+        <is>
+          <t>linguistic</t>
+        </is>
+      </c>
+      <c r="QA1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="QB1" s="1" t="inlineStr">
         <is>
           <t>definition</t>
         </is>
       </c>
-      <c r="NI1" s="1" t="inlineStr">
-        <is>
-          <t>superior</t>
-        </is>
-      </c>
-      <c r="NJ1" s="1" t="inlineStr">
-        <is>
-          <t>must</t>
-        </is>
-      </c>
-      <c r="NK1" s="1" t="inlineStr">
-        <is>
-          <t>creativity</t>
-        </is>
-      </c>
-      <c r="NL1" s="1" t="inlineStr">
-        <is>
-          <t>contrary</t>
-        </is>
-      </c>
-      <c r="NM1" s="1" t="inlineStr">
-        <is>
-          <t>lesson</t>
-        </is>
-      </c>
-      <c r="NN1" s="1" t="inlineStr">
-        <is>
-          <t>partnership</t>
-        </is>
-      </c>
-      <c r="NO1" s="1" t="inlineStr">
-        <is>
-          <t>diagnosing</t>
-        </is>
-      </c>
-      <c r="NP1" s="1" t="inlineStr">
-        <is>
-          <t>developed</t>
-        </is>
-      </c>
-      <c r="NQ1" s="1" t="inlineStr">
-        <is>
-          <t>eminence</t>
-        </is>
-      </c>
-      <c r="NR1" s="1" t="inlineStr">
-        <is>
-          <t>functioning</t>
-        </is>
-      </c>
-      <c r="NS1" s="1" t="inlineStr">
-        <is>
-          <t>developing</t>
-        </is>
-      </c>
-      <c r="NT1" s="1" t="inlineStr">
-        <is>
-          <t>independence</t>
-        </is>
-      </c>
-      <c r="NU1" s="1" t="inlineStr">
-        <is>
-          <t>slightly</t>
-        </is>
-      </c>
-      <c r="NV1" s="1" t="inlineStr">
-        <is>
-          <t>created</t>
-        </is>
-      </c>
-      <c r="NW1" s="1" t="inlineStr">
-        <is>
-          <t>louisiana</t>
-        </is>
-      </c>
-      <c r="NX1" s="1" t="inlineStr">
-        <is>
-          <t>conceptualizing</t>
-        </is>
-      </c>
-      <c r="NY1" s="1" t="inlineStr">
-        <is>
-          <t>unrelated</t>
-        </is>
-      </c>
-      <c r="NZ1" s="1" t="inlineStr">
-        <is>
-          <t>consists</t>
-        </is>
-      </c>
-      <c r="OA1" s="1" t="inlineStr">
-        <is>
-          <t>previous</t>
-        </is>
-      </c>
-      <c r="OB1" s="1" t="inlineStr">
-        <is>
-          <t>samples</t>
-        </is>
-      </c>
-      <c r="OC1" s="1" t="inlineStr">
-        <is>
-          <t>selection</t>
-        </is>
-      </c>
-      <c r="OD1" s="1" t="inlineStr">
+      <c r="QC1" s="1" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="QD1" s="1" t="inlineStr">
+        <is>
+          <t>given</t>
+        </is>
+      </c>
+      <c r="QE1" s="1" t="inlineStr">
+        <is>
+          <t>artistic</t>
+        </is>
+      </c>
+      <c r="QF1" s="1" t="inlineStr">
+        <is>
+          <t>spatial</t>
+        </is>
+      </c>
+      <c r="QG1" s="1" t="inlineStr">
+        <is>
+          <t>reliability</t>
+        </is>
+      </c>
+      <c r="QH1" s="1" t="inlineStr">
         <is>
           <t>seems</t>
         </is>
       </c>
-      <c r="OE1" s="1" t="inlineStr">
-        <is>
-          <t>thinking</t>
-        </is>
-      </c>
-      <c r="OF1" s="1" t="inlineStr">
-        <is>
-          <t>spatial</t>
-        </is>
-      </c>
-      <c r="OG1" s="1" t="inlineStr">
-        <is>
-          <t>videotape</t>
-        </is>
-      </c>
-      <c r="OH1" s="1" t="inlineStr">
-        <is>
-          <t>pre-adolescent</t>
-        </is>
-      </c>
-      <c r="OI1" s="1" t="inlineStr">
-        <is>
-          <t>relatively</t>
-        </is>
-      </c>
-      <c r="OJ1" s="1" t="inlineStr">
-        <is>
-          <t>perceptions</t>
-        </is>
-      </c>
-      <c r="OK1" s="1" t="inlineStr">
-        <is>
-          <t>over</t>
-        </is>
-      </c>
-      <c r="OL1" s="1" t="inlineStr">
-        <is>
-          <t>long-term</t>
-        </is>
-      </c>
-      <c r="OM1" s="1" t="inlineStr">
-        <is>
-          <t>assigned</t>
-        </is>
-      </c>
-      <c r="ON1" s="1" t="inlineStr">
-        <is>
-          <t>least</t>
-        </is>
-      </c>
-      <c r="OO1" s="1" t="inlineStr">
-        <is>
-          <t>assisting</t>
-        </is>
-      </c>
-      <c r="OP1" s="1" t="inlineStr">
-        <is>
-          <t>investigate</t>
-        </is>
-      </c>
-      <c r="OQ1" s="1" t="inlineStr">
-        <is>
-          <t>inconsistencies</t>
-        </is>
-      </c>
-      <c r="OR1" s="1" t="inlineStr">
-        <is>
-          <t>hindered</t>
-        </is>
-      </c>
-      <c r="OS1" s="1" t="inlineStr">
-        <is>
-          <t>frustration</t>
-        </is>
-      </c>
-      <c r="OT1" s="1" t="inlineStr">
-        <is>
-          <t>given</t>
-        </is>
-      </c>
-      <c r="OU1" s="1" t="inlineStr">
-        <is>
-          <t>families</t>
-        </is>
-      </c>
-      <c r="OV1" s="1" t="inlineStr">
-        <is>
-          <t>experienced</t>
-        </is>
-      </c>
-      <c r="OW1" s="1" t="inlineStr">
-        <is>
-          <t>indicated</t>
-        </is>
-      </c>
-      <c r="OX1" s="1" t="inlineStr">
-        <is>
-          <t>e.g.</t>
-        </is>
-      </c>
-      <c r="OY1" s="1" t="inlineStr">
-        <is>
-          <t>difficulties</t>
-        </is>
-      </c>
-      <c r="OZ1" s="1" t="inlineStr">
-        <is>
-          <t>degrees</t>
-        </is>
-      </c>
-      <c r="PA1" s="1" t="inlineStr">
-        <is>
-          <t>course</t>
-        </is>
-      </c>
-      <c r="PB1" s="1" t="inlineStr">
-        <is>
-          <t>cause</t>
-        </is>
-      </c>
-      <c r="PC1" s="1" t="inlineStr">
-        <is>
-          <t>spent</t>
-        </is>
-      </c>
-      <c r="PD1" s="1" t="inlineStr">
-        <is>
-          <t>base</t>
-        </is>
-      </c>
-      <c r="PE1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="PF1" s="1" t="inlineStr">
-        <is>
-          <t>admittance</t>
-        </is>
-      </c>
-      <c r="PG1" s="1" t="inlineStr">
-        <is>
-          <t>presently</t>
-        </is>
-      </c>
-      <c r="PH1" s="1" t="inlineStr">
-        <is>
-          <t>relocation</t>
-        </is>
-      </c>
-      <c r="PI1" s="1" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="PJ1" s="1" t="inlineStr">
-        <is>
-          <t>sure</t>
-        </is>
-      </c>
-      <c r="PK1" s="1" t="inlineStr">
-        <is>
-          <t>setting</t>
-        </is>
-      </c>
-      <c r="PL1" s="1" t="inlineStr">
-        <is>
-          <t>settings</t>
-        </is>
-      </c>
-      <c r="PM1" s="1" t="inlineStr">
-        <is>
-          <t>exists</t>
-        </is>
-      </c>
-      <c r="PN1" s="1" t="inlineStr">
-        <is>
-          <t>teacher-directed</t>
-        </is>
-      </c>
-      <c r="PO1" s="1" t="inlineStr">
-        <is>
-          <t>connecticut</t>
-        </is>
-      </c>
-      <c r="PP1" s="1" t="inlineStr">
-        <is>
-          <t>transfer</t>
-        </is>
-      </c>
-      <c r="PQ1" s="1" t="inlineStr">
-        <is>
-          <t>might</t>
-        </is>
-      </c>
-      <c r="PR1" s="1" t="inlineStr">
-        <is>
-          <t>viable</t>
-        </is>
-      </c>
-      <c r="PS1" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="PT1" s="1" t="inlineStr">
-        <is>
-          <t>working</t>
-        </is>
-      </c>
-      <c r="PU1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
-      </c>
-      <c r="PV1" s="1" t="inlineStr">
-        <is>
-          <t>suburban</t>
-        </is>
-      </c>
-      <c r="PW1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="PX1" s="1" t="inlineStr">
-        <is>
-          <t>underrepresentation</t>
-        </is>
-      </c>
-      <c r="PY1" s="1" t="inlineStr">
-        <is>
-          <t>validity</t>
-        </is>
-      </c>
-      <c r="PZ1" s="1" t="inlineStr">
-        <is>
-          <t>maker</t>
-        </is>
-      </c>
-      <c r="QA1" s="1" t="inlineStr">
-        <is>
-          <t>make</t>
-        </is>
-      </c>
-      <c r="QB1" s="1" t="inlineStr">
-        <is>
-          <t>logical-mathematical</t>
-        </is>
-      </c>
-      <c r="QC1" s="1" t="inlineStr">
-        <is>
-          <t>linguistic</t>
-        </is>
-      </c>
-      <c r="QD1" s="1" t="inlineStr">
-        <is>
-          <t>widely</t>
-        </is>
-      </c>
-      <c r="QE1" s="1" t="inlineStr">
-        <is>
-          <t>while</t>
-        </is>
-      </c>
-      <c r="QF1" s="1" t="inlineStr">
-        <is>
-          <t>term</t>
-        </is>
-      </c>
-      <c r="QG1" s="1" t="inlineStr">
-        <is>
-          <t>traced</t>
-        </is>
-      </c>
-      <c r="QH1" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="QI1" s="1" t="inlineStr">
         <is>
-          <t>reliability</t>
+          <t>reduced</t>
         </is>
       </c>
       <c r="QJ1" s="1" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>either</t>
         </is>
       </c>
       <c r="QK1" s="1" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>curricular</t>
         </is>
       </c>
       <c r="QL1" s="1" t="inlineStr">
         <is>
-          <t>performance-based</t>
+          <t>didactic</t>
         </is>
       </c>
       <c r="QM1" s="1" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>tend</t>
         </is>
       </c>
       <c r="QN1" s="1" t="inlineStr">
         <is>
-          <t>appraised</t>
+          <t>self-actualization</t>
         </is>
       </c>
       <c r="QO1" s="1" t="inlineStr">
         <is>
-          <t>reduced</t>
+          <t>roeper</t>
         </is>
       </c>
       <c r="QP1" s="1" t="inlineStr">
         <is>
-          <t>1990c</t>
+          <t>entering</t>
         </is>
       </c>
       <c r="QQ1" s="1" t="inlineStr">
         <is>
-          <t>purposes</t>
+          <t>clues</t>
         </is>
       </c>
       <c r="QR1" s="1" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>respects</t>
         </is>
       </c>
       <c r="QS1" s="1" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>promote</t>
         </is>
       </c>
       <c r="QT1" s="1" t="inlineStr">
         <is>
-          <t>absence</t>
+          <t>primary</t>
         </is>
       </c>
       <c r="QU1" s="1" t="inlineStr">
         <is>
-          <t>achenbach</t>
+          <t>forced</t>
         </is>
       </c>
       <c r="QV1" s="1" t="inlineStr">
         <is>
-          <t>administered</t>
+          <t>pressure</t>
         </is>
       </c>
       <c r="QW1" s="1" t="inlineStr">
         <is>
-          <t>artistic</t>
+          <t>forms</t>
         </is>
       </c>
       <c r="QX1" s="1" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>offers</t>
         </is>
       </c>
       <c r="QY1" s="1" t="inlineStr">
         <is>
-          <t>self-actualization</t>
+          <t>greatest</t>
         </is>
       </c>
       <c r="QZ1" s="1" t="inlineStr">
         <is>
+          <t>understand</t>
+        </is>
+      </c>
+      <c r="RA1" s="1" t="inlineStr">
+        <is>
+          <t>clarifies</t>
+        </is>
+      </c>
+      <c r="RB1" s="1" t="inlineStr">
+        <is>
+          <t>clearly</t>
+        </is>
+      </c>
+      <c r="RC1" s="1" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="RD1" s="1" t="inlineStr">
+        <is>
+          <t>adjustments</t>
+        </is>
+      </c>
+      <c r="RE1" s="1" t="inlineStr">
+        <is>
+          <t>yet</t>
+        </is>
+      </c>
+      <c r="RF1" s="1" t="inlineStr">
+        <is>
+          <t>well-being</t>
+        </is>
+      </c>
+      <c r="RG1" s="1" t="inlineStr">
+        <is>
+          <t>illustrate</t>
+        </is>
+      </c>
+      <c r="RH1" s="1" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="RI1" s="1" t="inlineStr">
+        <is>
+          <t>way</t>
+        </is>
+      </c>
+      <c r="RJ1" s="1" t="inlineStr">
+        <is>
+          <t>beginning</t>
+        </is>
+      </c>
+      <c r="RK1" s="1" t="inlineStr">
+        <is>
+          <t>case</t>
+        </is>
+      </c>
+      <c r="RL1" s="1" t="inlineStr">
+        <is>
+          <t>cases</t>
+        </is>
+      </c>
+      <c r="RM1" s="1" t="inlineStr">
+        <is>
+          <t>values</t>
+        </is>
+      </c>
+      <c r="RN1" s="1" t="inlineStr">
+        <is>
+          <t>value-neutral</t>
+        </is>
+      </c>
+      <c r="RO1" s="1" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="RP1" s="1" t="inlineStr">
+        <is>
+          <t>challenging</t>
+        </is>
+      </c>
+      <c r="RQ1" s="1" t="inlineStr">
+        <is>
+          <t>changes</t>
+        </is>
+      </c>
+      <c r="RR1" s="1" t="inlineStr">
+        <is>
+          <t>characteristics</t>
+        </is>
+      </c>
+      <c r="RS1" s="1" t="inlineStr">
+        <is>
+          <t>maslow</t>
+        </is>
+      </c>
+      <c r="RT1" s="1" t="inlineStr">
+        <is>
+          <t>conditions</t>
+        </is>
+      </c>
+      <c r="RU1" s="1" t="inlineStr">
+        <is>
+          <t>interdependence</t>
+        </is>
+      </c>
+      <c r="RV1" s="1" t="inlineStr">
+        <is>
+          <t>underachieve</t>
+        </is>
+      </c>
+      <c r="RW1" s="1" t="inlineStr">
+        <is>
+          <t>offered</t>
+        </is>
+      </c>
+      <c r="RX1" s="1" t="inlineStr">
+        <is>
+          <t>prevention</t>
+        </is>
+      </c>
+      <c r="RY1" s="1" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="RZ1" s="1" t="inlineStr">
+        <is>
+          <t>whose</t>
+        </is>
+      </c>
+      <c r="SA1" s="1" t="inlineStr">
+        <is>
+          <t>utilized</t>
+        </is>
+      </c>
+      <c r="SB1" s="1" t="inlineStr">
+        <is>
+          <t>exceptions</t>
+        </is>
+      </c>
+      <c r="SC1" s="1" t="inlineStr">
+        <is>
+          <t>educate</t>
+        </is>
+      </c>
+      <c r="SD1" s="1" t="inlineStr">
+        <is>
+          <t>suggested</t>
+        </is>
+      </c>
+      <c r="SE1" s="1" t="inlineStr">
+        <is>
+          <t>processes</t>
+        </is>
+      </c>
+      <c r="SF1" s="1" t="inlineStr">
+        <is>
+          <t>disjunction</t>
+        </is>
+      </c>
+      <c r="SG1" s="1" t="inlineStr">
+        <is>
+          <t>student-based</t>
+        </is>
+      </c>
+      <c r="SH1" s="1" t="inlineStr">
+        <is>
           <t>relevant</t>
         </is>
       </c>
-      <c r="RA1" s="1" t="inlineStr">
-        <is>
-          <t>student-based</t>
-        </is>
-      </c>
-      <c r="RB1" s="1" t="inlineStr">
-        <is>
-          <t>suggested</t>
-        </is>
-      </c>
-      <c r="RC1" s="1" t="inlineStr">
-        <is>
-          <t>underachieve</t>
-        </is>
-      </c>
-      <c r="RD1" s="1" t="inlineStr">
-        <is>
-          <t>utilized</t>
-        </is>
-      </c>
-      <c r="RE1" s="1" t="inlineStr">
-        <is>
-          <t>whose</t>
-        </is>
-      </c>
-      <c r="RF1" s="1" t="inlineStr">
-        <is>
-          <t>understand</t>
-        </is>
-      </c>
-      <c r="RG1" s="1" t="inlineStr">
-        <is>
-          <t>tend</t>
-        </is>
-      </c>
-      <c r="RH1" s="1" t="inlineStr">
-        <is>
-          <t>offers</t>
-        </is>
-      </c>
-      <c r="RI1" s="1" t="inlineStr">
-        <is>
-          <t>roeper</t>
-        </is>
-      </c>
-      <c r="RJ1" s="1" t="inlineStr">
-        <is>
-          <t>respects</t>
-        </is>
-      </c>
-      <c r="RK1" s="1" t="inlineStr">
-        <is>
-          <t>promote</t>
-        </is>
-      </c>
-      <c r="RL1" s="1" t="inlineStr">
-        <is>
-          <t>primary</t>
-        </is>
-      </c>
-      <c r="RM1" s="1" t="inlineStr">
-        <is>
-          <t>pressure</t>
-        </is>
-      </c>
-      <c r="RN1" s="1" t="inlineStr">
+      <c r="SI1" s="1" t="inlineStr">
+        <is>
+          <t>realizing</t>
+        </is>
+      </c>
+      <c r="SJ1" s="1" t="inlineStr">
+        <is>
+          <t>dabrowski</t>
+        </is>
+      </c>
+      <c r="SK1" s="1" t="inlineStr">
+        <is>
+          <t>contain</t>
+        </is>
+      </c>
+      <c r="SL1" s="1" t="inlineStr">
+        <is>
+          <t>consequences</t>
+        </is>
+      </c>
+      <c r="SM1" s="1" t="inlineStr">
+        <is>
+          <t>achieve</t>
+        </is>
+      </c>
+      <c r="SN1" s="1" t="inlineStr">
+        <is>
+          <t>means</t>
+        </is>
+      </c>
+      <c r="SO1" s="1" t="inlineStr">
+        <is>
+          <t>finding</t>
+        </is>
+      </c>
+      <c r="SP1" s="1" t="inlineStr">
+        <is>
+          <t>higher</t>
+        </is>
+      </c>
+      <c r="SQ1" s="1" t="inlineStr">
+        <is>
+          <t>action</t>
+        </is>
+      </c>
+      <c r="SR1" s="1" t="inlineStr">
+        <is>
+          <t>argue</t>
+        </is>
+      </c>
+      <c r="SS1" s="1" t="inlineStr">
+        <is>
+          <t>improving</t>
+        </is>
+      </c>
+      <c r="ST1" s="1" t="inlineStr">
+        <is>
+          <t>illuminate</t>
+        </is>
+      </c>
+      <c r="SU1" s="1" t="inlineStr">
+        <is>
+          <t>assists</t>
+        </is>
+      </c>
+      <c r="SV1" s="1" t="inlineStr">
+        <is>
+          <t>attempts</t>
+        </is>
+      </c>
+      <c r="SW1" s="1" t="inlineStr">
+        <is>
+          <t>child-centered</t>
+        </is>
+      </c>
+      <c r="SX1" s="1" t="inlineStr">
+        <is>
+          <t>helping</t>
+        </is>
+      </c>
+      <c r="SY1" s="1" t="inlineStr">
+        <is>
+          <t>guide</t>
+        </is>
+      </c>
+      <c r="SZ1" s="1" t="inlineStr">
+        <is>
+          <t>integrating</t>
+        </is>
+      </c>
+      <c r="TA1" s="1" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="TB1" s="1" t="inlineStr">
+        <is>
+          <t>lower</t>
+        </is>
+      </c>
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>mates</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>child-centeredness</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>goals</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>helps</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>underpinning</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>contacts</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>corresponding</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
+        <is>
+          <t>productive</t>
+        </is>
+      </c>
+      <c r="TK1" s="1" t="inlineStr">
+        <is>
+          <t>efficacy</t>
+        </is>
+      </c>
+      <c r="TL1" s="1" t="inlineStr">
+        <is>
+          <t>papers</t>
+        </is>
+      </c>
+      <c r="TM1" s="1" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="TN1" s="1" t="inlineStr">
+        <is>
+          <t>memoranda</t>
+        </is>
+      </c>
+      <c r="TO1" s="1" t="inlineStr">
+        <is>
+          <t>members</t>
+        </is>
+      </c>
+      <c r="TP1" s="1" t="inlineStr">
+        <is>
+          <t>member</t>
+        </is>
+      </c>
+      <c r="TQ1" s="1" t="inlineStr">
+        <is>
+          <t>lives</t>
+        </is>
+      </c>
+      <c r="TR1" s="1" t="inlineStr">
+        <is>
+          <t>examine</t>
+        </is>
+      </c>
+      <c r="TS1" s="1" t="inlineStr">
+        <is>
+          <t>exploration</t>
+        </is>
+      </c>
+      <c r="TT1" s="1" t="inlineStr">
+        <is>
+          <t>hypothesized</t>
+        </is>
+      </c>
+      <c r="TU1" s="1" t="inlineStr">
+        <is>
+          <t>including</t>
+        </is>
+      </c>
+      <c r="TV1" s="1" t="inlineStr">
+        <is>
+          <t>intended</t>
+        </is>
+      </c>
+      <c r="TW1" s="1" t="inlineStr">
+        <is>
+          <t>intrinsic</t>
+        </is>
+      </c>
+      <c r="TX1" s="1" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="TY1" s="1" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="TZ1" s="1" t="inlineStr">
+        <is>
+          <t>motivation</t>
+        </is>
+      </c>
+      <c r="UA1" s="1" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="UB1" s="1" t="inlineStr">
+        <is>
+          <t>participated</t>
+        </is>
+      </c>
+      <c r="UC1" s="1" t="inlineStr">
+        <is>
+          <t>published</t>
+        </is>
+      </c>
+      <c r="UD1" s="1" t="inlineStr">
+        <is>
+          <t>represent</t>
+        </is>
+      </c>
+      <c r="UE1" s="1" t="inlineStr">
+        <is>
+          <t>rationale</t>
+        </is>
+      </c>
+      <c r="UF1" s="1" t="inlineStr">
+        <is>
+          <t>respective</t>
+        </is>
+      </c>
+      <c r="UG1" s="1" t="inlineStr">
+        <is>
+          <t>worked</t>
+        </is>
+      </c>
+      <c r="UH1" s="1" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="UI1" s="1" t="inlineStr">
+        <is>
+          <t>wealth</t>
+        </is>
+      </c>
+      <c r="UJ1" s="1" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="UK1" s="1" t="inlineStr">
+        <is>
+          <t>various</t>
+        </is>
+      </c>
+      <c r="UL1" s="1" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="UM1" s="1" t="inlineStr">
+        <is>
+          <t>anxiety</t>
+        </is>
+      </c>
+      <c r="UN1" s="1" t="inlineStr">
+        <is>
+          <t>boredom</t>
+        </is>
+      </c>
+      <c r="UO1" s="1" t="inlineStr">
+        <is>
+          <t>unpublished</t>
+        </is>
+      </c>
+      <c r="UP1" s="1" t="inlineStr">
+        <is>
+          <t>team</t>
+        </is>
+      </c>
+      <c r="UQ1" s="1" t="inlineStr">
+        <is>
+          <t>societal</t>
+        </is>
+      </c>
+      <c r="UR1" s="1" t="inlineStr">
+        <is>
+          <t>satisfying</t>
+        </is>
+      </c>
+      <c r="US1" s="1" t="inlineStr">
+        <is>
+          <t>cohorts</t>
+        </is>
+      </c>
+      <c r="UT1" s="1" t="inlineStr">
+        <is>
+          <t>component</t>
+        </is>
+      </c>
+      <c r="UU1" s="1" t="inlineStr">
+        <is>
+          <t>comprising</t>
+        </is>
+      </c>
+      <c r="UV1" s="1" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="UW1" s="1" t="inlineStr">
+        <is>
+          <t>considerations</t>
+        </is>
+      </c>
+      <c r="UX1" s="1" t="inlineStr">
+        <is>
+          <t>correlations</t>
+        </is>
+      </c>
+      <c r="UY1" s="1" t="inlineStr">
+        <is>
+          <t>responsibilities</t>
+        </is>
+      </c>
+      <c r="UZ1" s="1" t="inlineStr">
+        <is>
+          <t>principal</t>
+        </is>
+      </c>
+      <c r="VA1" s="1" t="inlineStr">
+        <is>
+          <t>lent</t>
+        </is>
+      </c>
+      <c r="VB1" s="1" t="inlineStr">
+        <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="VC1" s="1" t="inlineStr">
+        <is>
+          <t>dr.</t>
+        </is>
+      </c>
+      <c r="VD1" s="1" t="inlineStr">
+        <is>
+          <t>conventions</t>
+        </is>
+      </c>
+      <c r="VE1" s="1" t="inlineStr">
+        <is>
+          <t>contribute</t>
+        </is>
+      </c>
+      <c r="VF1" s="1" t="inlineStr">
+        <is>
+          <t>continium</t>
+        </is>
+      </c>
+      <c r="VG1" s="1" t="inlineStr">
+        <is>
+          <t>relative</t>
+        </is>
+      </c>
+      <c r="VH1" s="1" t="inlineStr">
+        <is>
+          <t>conception</t>
+        </is>
+      </c>
+      <c r="VI1" s="1" t="inlineStr">
+        <is>
+          <t>collected</t>
+        </is>
+      </c>
+      <c r="VJ1" s="1" t="inlineStr">
+        <is>
+          <t>classic</t>
+        </is>
+      </c>
+      <c r="VK1" s="1" t="inlineStr">
+        <is>
+          <t>carrying</t>
+        </is>
+      </c>
+      <c r="VL1" s="1" t="inlineStr">
+        <is>
+          <t>careers</t>
+        </is>
+      </c>
+      <c r="VM1" s="1" t="inlineStr">
+        <is>
+          <t>capacities</t>
+        </is>
+      </c>
+      <c r="VN1" s="1" t="inlineStr">
+        <is>
+          <t>california</t>
+        </is>
+      </c>
+      <c r="VO1" s="1" t="inlineStr">
+        <is>
+          <t>archives</t>
+        </is>
+      </c>
+      <c r="VP1" s="1" t="inlineStr">
+        <is>
+          <t>addition</t>
+        </is>
+      </c>
+      <c r="VQ1" s="1" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="VR1" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="VS1" s="1" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="VT1" s="1" t="inlineStr">
         <is>
           <t>1,528</t>
         </is>
       </c>
-      <c r="RO1" s="1" t="inlineStr">
-        <is>
-          <t>most</t>
-        </is>
-      </c>
-      <c r="RP1" s="1" t="inlineStr">
-        <is>
-          <t>maslow</t>
-        </is>
-      </c>
-      <c r="RQ1" s="1" t="inlineStr">
-        <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="RR1" s="1" t="inlineStr">
-        <is>
-          <t>represent</t>
-        </is>
-      </c>
-      <c r="RS1" s="1" t="inlineStr">
-        <is>
-          <t>interdependence</t>
-        </is>
-      </c>
-      <c r="RT1" s="1" t="inlineStr">
-        <is>
-          <t>illuminate</t>
-        </is>
-      </c>
-      <c r="RU1" s="1" t="inlineStr">
-        <is>
-          <t>helping</t>
-        </is>
-      </c>
-      <c r="RV1" s="1" t="inlineStr">
-        <is>
-          <t>realizing</t>
-        </is>
-      </c>
-      <c r="RW1" s="1" t="inlineStr">
-        <is>
-          <t>careers</t>
-        </is>
-      </c>
-      <c r="RX1" s="1" t="inlineStr">
-        <is>
-          <t>processes</t>
-        </is>
-      </c>
-      <c r="RY1" s="1" t="inlineStr">
-        <is>
-          <t>integrating</t>
-        </is>
-      </c>
-      <c r="RZ1" s="1" t="inlineStr">
-        <is>
-          <t>yet</t>
-        </is>
-      </c>
-      <c r="SA1" s="1" t="inlineStr">
-        <is>
-          <t>forced</t>
-        </is>
-      </c>
-      <c r="SB1" s="1" t="inlineStr">
-        <is>
-          <t>forms</t>
-        </is>
-      </c>
-      <c r="SC1" s="1" t="inlineStr">
-        <is>
-          <t>greatest</t>
-        </is>
-      </c>
-      <c r="SD1" s="1" t="inlineStr">
-        <is>
-          <t>when</t>
-        </is>
-      </c>
-      <c r="SE1" s="1" t="inlineStr">
-        <is>
-          <t>helps</t>
-        </is>
-      </c>
-      <c r="SF1" s="1" t="inlineStr">
-        <is>
-          <t>higher</t>
-        </is>
-      </c>
-      <c r="SG1" s="1" t="inlineStr">
-        <is>
-          <t>illustrate</t>
-        </is>
-      </c>
-      <c r="SH1" s="1" t="inlineStr">
-        <is>
-          <t>improving</t>
-        </is>
-      </c>
-      <c r="SI1" s="1" t="inlineStr">
-        <is>
-          <t>well-being</t>
-        </is>
-      </c>
-      <c r="SJ1" s="1" t="inlineStr">
-        <is>
-          <t>way</t>
-        </is>
-      </c>
-      <c r="SK1" s="1" t="inlineStr">
-        <is>
-          <t>respective</t>
-        </is>
-      </c>
-      <c r="SL1" s="1" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="SM1" s="1" t="inlineStr">
-        <is>
-          <t>lower</t>
-        </is>
-      </c>
-      <c r="SN1" s="1" t="inlineStr">
-        <is>
-          <t>mates</t>
-        </is>
-      </c>
-      <c r="SO1" s="1" t="inlineStr">
-        <is>
-          <t>means</t>
-        </is>
-      </c>
-      <c r="SP1" s="1" t="inlineStr">
-        <is>
-          <t>offered</t>
-        </is>
-      </c>
-      <c r="SQ1" s="1" t="inlineStr">
-        <is>
-          <t>values</t>
-        </is>
-      </c>
-      <c r="SR1" s="1" t="inlineStr">
-        <is>
-          <t>goals</t>
-        </is>
-      </c>
-      <c r="SS1" s="1" t="inlineStr">
-        <is>
-          <t>value-neutral</t>
-        </is>
-      </c>
-      <c r="ST1" s="1" t="inlineStr">
-        <is>
-          <t>us</t>
-        </is>
-      </c>
-      <c r="SU1" s="1" t="inlineStr">
-        <is>
-          <t>prevention</t>
-        </is>
-      </c>
-      <c r="SV1" s="1" t="inlineStr">
-        <is>
-          <t>guide</t>
-        </is>
-      </c>
-      <c r="SW1" s="1" t="inlineStr">
-        <is>
-          <t>consequences</t>
-        </is>
-      </c>
-      <c r="SX1" s="1" t="inlineStr">
-        <is>
-          <t>published</t>
-        </is>
-      </c>
-      <c r="SY1" s="1" t="inlineStr">
-        <is>
-          <t>finding</t>
-        </is>
-      </c>
-      <c r="SZ1" s="1" t="inlineStr">
-        <is>
-          <t>lives</t>
-        </is>
-      </c>
-      <c r="TA1" s="1" t="inlineStr">
+      <c r="VU1" s="1" t="inlineStr">
+        <is>
+          <t>correspondence</t>
+        </is>
+      </c>
+      <c r="VV1" s="1" t="inlineStr">
+        <is>
+          <t>conducting</t>
+        </is>
+      </c>
+      <c r="VW1" s="1" t="inlineStr">
         <is>
           <t>lifelong</t>
         </is>
       </c>
-      <c r="TB1" s="1" t="inlineStr">
+      <c r="VX1" s="1" t="inlineStr">
         <is>
           <t>life-long</t>
         </is>
       </c>
-      <c r="TC1" s="1" t="inlineStr">
+      <c r="VY1" s="1" t="inlineStr">
+        <is>
+          <t>self-reported</t>
+        </is>
+      </c>
+      <c r="VZ1" s="1" t="inlineStr">
+        <is>
+          <t>self-reports</t>
+        </is>
+      </c>
+      <c r="WA1" s="1" t="inlineStr">
+        <is>
+          <t>social-constructivist</t>
+        </is>
+      </c>
+      <c r="WB1" s="1" t="inlineStr">
+        <is>
+          <t>supports</t>
+        </is>
+      </c>
+      <c r="WC1" s="1" t="inlineStr">
+        <is>
+          <t>tedium</t>
+        </is>
+      </c>
+      <c r="WD1" s="1" t="inlineStr">
+        <is>
+          <t>terms</t>
+        </is>
+      </c>
+      <c r="WE1" s="1" t="inlineStr">
+        <is>
+          <t>satisfaction</t>
+        </is>
+      </c>
+      <c r="WF1" s="1" t="inlineStr">
+        <is>
+          <t>theoretical</t>
+        </is>
+      </c>
+      <c r="WG1" s="1" t="inlineStr">
+        <is>
+          <t>verify</t>
+        </is>
+      </c>
+      <c r="WH1" s="1" t="inlineStr">
+        <is>
+          <t>selective</t>
+        </is>
+      </c>
+      <c r="WI1" s="1" t="inlineStr">
         <is>
           <t>lewis</t>
         </is>
       </c>
-      <c r="TD1" s="1" t="inlineStr">
+      <c r="WJ1" s="1" t="inlineStr">
         <is>
           <t>levels</t>
         </is>
       </c>
-      <c r="TE1" s="1" t="inlineStr">
-        <is>
-          <t>addition</t>
-        </is>
-      </c>
-      <c r="TF1" s="1" t="inlineStr">
+      <c r="WK1" s="1" t="inlineStr">
         <is>
           <t>incomplete</t>
         </is>
       </c>
-      <c r="TG1" s="1" t="inlineStr">
+      <c r="WL1" s="1" t="inlineStr">
         <is>
           <t>greatly</t>
         </is>
       </c>
-      <c r="TH1" s="1" t="inlineStr">
-        <is>
-          <t>archives</t>
-        </is>
-      </c>
-      <c r="TI1" s="1" t="inlineStr">
+      <c r="WM1" s="1" t="inlineStr">
         <is>
           <t>field</t>
         </is>
       </c>
-      <c r="TJ1" s="1" t="inlineStr">
+      <c r="WN1" s="1" t="inlineStr">
         <is>
           <t>family</t>
         </is>
       </c>
-      <c r="TK1" s="1" t="inlineStr">
-        <is>
-          <t>california</t>
-        </is>
-      </c>
-      <c r="TL1" s="1" t="inlineStr">
-        <is>
-          <t>dr.</t>
-        </is>
-      </c>
-      <c r="TM1" s="1" t="inlineStr">
-        <is>
-          <t>correspondence</t>
-        </is>
-      </c>
-      <c r="TN1" s="1" t="inlineStr">
-        <is>
-          <t>conventions</t>
-        </is>
-      </c>
-      <c r="TO1" s="1" t="inlineStr">
-        <is>
-          <t>contribute</t>
-        </is>
-      </c>
-      <c r="TP1" s="1" t="inlineStr">
-        <is>
-          <t>continium</t>
-        </is>
-      </c>
-      <c r="TQ1" s="1" t="inlineStr">
-        <is>
-          <t>contacts</t>
-        </is>
-      </c>
-      <c r="TR1" s="1" t="inlineStr">
-        <is>
-          <t>conducting</t>
-        </is>
-      </c>
-      <c r="TS1" s="1" t="inlineStr">
-        <is>
-          <t>conception</t>
-        </is>
-      </c>
-      <c r="TT1" s="1" t="inlineStr">
-        <is>
-          <t>collected</t>
-        </is>
-      </c>
-      <c r="TU1" s="1" t="inlineStr">
-        <is>
-          <t>classic</t>
-        </is>
-      </c>
-      <c r="TV1" s="1" t="inlineStr">
-        <is>
-          <t>carrying</t>
-        </is>
-      </c>
-      <c r="TW1" s="1" t="inlineStr">
-        <is>
-          <t>actual</t>
-        </is>
-      </c>
-      <c r="TX1" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="TY1" s="1" t="inlineStr">
-        <is>
-          <t>member</t>
-        </is>
-      </c>
-      <c r="TZ1" s="1" t="inlineStr">
-        <is>
-          <t>attempts</t>
-        </is>
-      </c>
-      <c r="UA1" s="1" t="inlineStr">
-        <is>
-          <t>exceptions</t>
-        </is>
-      </c>
-      <c r="UB1" s="1" t="inlineStr">
-        <is>
-          <t>educate</t>
-        </is>
-      </c>
-      <c r="UC1" s="1" t="inlineStr">
-        <is>
-          <t>disjunction</t>
-        </is>
-      </c>
-      <c r="UD1" s="1" t="inlineStr">
-        <is>
-          <t>dabrowski</t>
-        </is>
-      </c>
-      <c r="UE1" s="1" t="inlineStr">
-        <is>
-          <t>contain</t>
-        </is>
-      </c>
-      <c r="UF1" s="1" t="inlineStr">
-        <is>
-          <t>either</t>
-        </is>
-      </c>
-      <c r="UG1" s="1" t="inlineStr">
-        <is>
-          <t>conditions</t>
-        </is>
-      </c>
-      <c r="UH1" s="1" t="inlineStr">
-        <is>
-          <t>complex</t>
-        </is>
-      </c>
-      <c r="UI1" s="1" t="inlineStr">
-        <is>
-          <t>child-centeredness</t>
-        </is>
-      </c>
-      <c r="UJ1" s="1" t="inlineStr">
-        <is>
-          <t>child-centered</t>
-        </is>
-      </c>
-      <c r="UK1" s="1" t="inlineStr">
-        <is>
-          <t>assists</t>
-        </is>
-      </c>
-      <c r="UL1" s="1" t="inlineStr">
-        <is>
-          <t>members</t>
-        </is>
-      </c>
-      <c r="UM1" s="1" t="inlineStr">
-        <is>
-          <t>argue</t>
-        </is>
-      </c>
-      <c r="UN1" s="1" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="UO1" s="1" t="inlineStr">
-        <is>
-          <t>action</t>
-        </is>
-      </c>
-      <c r="UP1" s="1" t="inlineStr">
-        <is>
-          <t>achieve</t>
-        </is>
-      </c>
-      <c r="UQ1" s="1" t="inlineStr">
-        <is>
-          <t>1925</t>
-        </is>
-      </c>
-      <c r="UR1" s="1" t="inlineStr">
-        <is>
-          <t>productive</t>
-        </is>
-      </c>
-      <c r="US1" s="1" t="inlineStr">
-        <is>
-          <t>papers</t>
-        </is>
-      </c>
-      <c r="UT1" s="1" t="inlineStr">
-        <is>
-          <t>notes</t>
-        </is>
-      </c>
-      <c r="UU1" s="1" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="UV1" s="1" t="inlineStr">
-        <is>
-          <t>memoranda</t>
-        </is>
-      </c>
-      <c r="UW1" s="1" t="inlineStr">
-        <is>
-          <t>entering</t>
-        </is>
-      </c>
-      <c r="UX1" s="1" t="inlineStr">
-        <is>
-          <t>capacities</t>
-        </is>
-      </c>
-      <c r="UY1" s="1" t="inlineStr">
-        <is>
-          <t>satisfying</t>
-        </is>
-      </c>
-      <c r="UZ1" s="1" t="inlineStr">
-        <is>
-          <t>participated</t>
-        </is>
-      </c>
-      <c r="VA1" s="1" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
-      <c r="VB1" s="1" t="inlineStr">
-        <is>
-          <t>motivation</t>
-        </is>
-      </c>
-      <c r="VC1" s="1" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="VD1" s="1" t="inlineStr">
-        <is>
-          <t>societal</t>
-        </is>
-      </c>
-      <c r="VE1" s="1" t="inlineStr">
-        <is>
-          <t>lent</t>
-        </is>
-      </c>
-      <c r="VF1" s="1" t="inlineStr">
-        <is>
-          <t>intrinsic</t>
-        </is>
-      </c>
-      <c r="VG1" s="1" t="inlineStr">
-        <is>
-          <t>intended</t>
-        </is>
-      </c>
-      <c r="VH1" s="1" t="inlineStr">
-        <is>
-          <t>including</t>
-        </is>
-      </c>
-      <c r="VI1" s="1" t="inlineStr">
-        <is>
-          <t>hypothesized</t>
-        </is>
-      </c>
-      <c r="VJ1" s="1" t="inlineStr">
-        <is>
-          <t>exploration</t>
-        </is>
-      </c>
-      <c r="VK1" s="1" t="inlineStr">
-        <is>
-          <t>examine</t>
-        </is>
-      </c>
-      <c r="VL1" s="1" t="inlineStr">
-        <is>
-          <t>efficacy</t>
-        </is>
-      </c>
-      <c r="VM1" s="1" t="inlineStr">
-        <is>
-          <t>corresponding</t>
-        </is>
-      </c>
-      <c r="VN1" s="1" t="inlineStr">
-        <is>
-          <t>correlations</t>
-        </is>
-      </c>
-      <c r="VO1" s="1" t="inlineStr">
-        <is>
-          <t>considerations</t>
-        </is>
-      </c>
-      <c r="VP1" s="1" t="inlineStr">
-        <is>
-          <t>confirmed</t>
-        </is>
-      </c>
-      <c r="VQ1" s="1" t="inlineStr">
-        <is>
-          <t>comprising</t>
-        </is>
-      </c>
-      <c r="VR1" s="1" t="inlineStr">
-        <is>
-          <t>component</t>
-        </is>
-      </c>
-      <c r="VS1" s="1" t="inlineStr">
-        <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="VT1" s="1" t="inlineStr">
-        <is>
-          <t>cohorts</t>
-        </is>
-      </c>
-      <c r="VU1" s="1" t="inlineStr">
-        <is>
-          <t>team</t>
-        </is>
-      </c>
-      <c r="VV1" s="1" t="inlineStr">
-        <is>
-          <t>unpublished</t>
-        </is>
-      </c>
-      <c r="VW1" s="1" t="inlineStr">
-        <is>
-          <t>boredom</t>
-        </is>
-      </c>
-      <c r="VX1" s="1" t="inlineStr">
-        <is>
-          <t>various</t>
-        </is>
-      </c>
-      <c r="VY1" s="1" t="inlineStr">
-        <is>
-          <t>wealth</t>
-        </is>
-      </c>
-      <c r="VZ1" s="1" t="inlineStr">
-        <is>
-          <t>worked</t>
-        </is>
-      </c>
-      <c r="WA1" s="1" t="inlineStr">
-        <is>
-          <t>402</t>
-        </is>
-      </c>
-      <c r="WB1" s="1" t="inlineStr">
-        <is>
-          <t>540</t>
-        </is>
-      </c>
-      <c r="WC1" s="1" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="WD1" s="1" t="inlineStr">
-        <is>
-          <t>anxiety</t>
-        </is>
-      </c>
-      <c r="WE1" s="1" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="WF1" s="1" t="inlineStr">
-        <is>
-          <t>principal</t>
-        </is>
-      </c>
-      <c r="WG1" s="1" t="inlineStr">
-        <is>
-          <t>changes</t>
-        </is>
-      </c>
-      <c r="WH1" s="1" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="WI1" s="1" t="inlineStr">
-        <is>
-          <t>basic</t>
-        </is>
-      </c>
-      <c r="WJ1" s="1" t="inlineStr">
-        <is>
-          <t>beginning</t>
-        </is>
-      </c>
-      <c r="WK1" s="1" t="inlineStr">
-        <is>
-          <t>case</t>
-        </is>
-      </c>
-      <c r="WL1" s="1" t="inlineStr">
-        <is>
-          <t>cases</t>
-        </is>
-      </c>
-      <c r="WM1" s="1" t="inlineStr">
-        <is>
-          <t>challenging</t>
-        </is>
-      </c>
-      <c r="WN1" s="1" t="inlineStr">
-        <is>
-          <t>characteristics</t>
-        </is>
-      </c>
       <c r="WO1" s="1" t="inlineStr">
         <is>
-          <t>underpinning</t>
+          <t>raising</t>
         </is>
       </c>
       <c r="WP1" s="1" t="inlineStr">
         <is>
-          <t>clarifies</t>
+          <t>examinations</t>
         </is>
       </c>
       <c r="WQ1" s="1" t="inlineStr">
         <is>
-          <t>clearly</t>
+          <t>qualifying</t>
         </is>
       </c>
       <c r="WR1" s="1" t="inlineStr">
         <is>
-          <t>clues</t>
+          <t>eligibility</t>
         </is>
       </c>
       <c r="WS1" s="1" t="inlineStr">
         <is>
-          <t>curricular</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="WT1" s="1" t="inlineStr">
         <is>
-          <t>didactic</t>
+          <t>entrance</t>
         </is>
       </c>
       <c r="WU1" s="1" t="inlineStr">
         <is>
-          <t>responsibilities</t>
+          <t>requirements</t>
         </is>
       </c>
       <c r="WV1" s="1" t="inlineStr">
         <is>
-          <t>rationale</t>
+          <t>establishing</t>
         </is>
       </c>
       <c r="WW1" s="1" t="inlineStr">
         <is>
-          <t>verify</t>
+          <t>number</t>
         </is>
       </c>
       <c r="WX1" s="1" t="inlineStr">
         <is>
-          <t>adjustments</t>
+          <t>guidelines</t>
         </is>
       </c>
       <c r="WY1" s="1" t="inlineStr">
         <is>
-          <t>theoretical</t>
+          <t>example</t>
         </is>
       </c>
       <c r="WZ1" s="1" t="inlineStr">
         <is>
-          <t>regression</t>
+          <t>favourably</t>
         </is>
       </c>
       <c r="XA1" s="1" t="inlineStr">
         <is>
-          <t>relative</t>
+          <t>normally</t>
         </is>
       </c>
       <c r="XB1" s="1" t="inlineStr">
         <is>
-          <t>satisfaction</t>
+          <t>in-grade</t>
         </is>
       </c>
       <c r="XC1" s="1" t="inlineStr">
         <is>
-          <t>selective</t>
+          <t>indicate</t>
         </is>
       </c>
       <c r="XD1" s="1" t="inlineStr">
         <is>
-          <t>self-reported</t>
+          <t>indicates</t>
         </is>
       </c>
       <c r="XE1" s="1" t="inlineStr">
         <is>
-          <t>self-reports</t>
+          <t>core</t>
         </is>
       </c>
       <c r="XF1" s="1" t="inlineStr">
         <is>
-          <t>social-constructivist</t>
+          <t>positives</t>
         </is>
       </c>
       <c r="XG1" s="1" t="inlineStr">
         <is>
-          <t>supports</t>
+          <t>negatives</t>
         </is>
       </c>
       <c r="XH1" s="1" t="inlineStr">
         <is>
-          <t>tedium</t>
+          <t>eighth-grade</t>
         </is>
       </c>
       <c r="XI1" s="1" t="inlineStr">
         <is>
-          <t>terms</t>
+          <t>adaptation</t>
         </is>
       </c>
       <c r="XJ1" s="1" t="inlineStr">
         <is>
+          <t>effectively</t>
+        </is>
+      </c>
+      <c r="XK1" s="1" t="inlineStr">
+        <is>
+          <t>traits</t>
+        </is>
+      </c>
+      <c r="XL1" s="1" t="inlineStr">
+        <is>
+          <t>organizations</t>
+        </is>
+      </c>
+      <c r="XM1" s="1" t="inlineStr">
+        <is>
+          <t>out-of-school</t>
+        </is>
+      </c>
+      <c r="XN1" s="1" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
+      <c r="XO1" s="1" t="inlineStr">
+        <is>
+          <t>promoted</t>
+        </is>
+      </c>
+      <c r="XP1" s="1" t="inlineStr">
+        <is>
+          <t>psychology</t>
+        </is>
+      </c>
+      <c r="XQ1" s="1" t="inlineStr">
+        <is>
+          <t>recent</t>
+        </is>
+      </c>
+      <c r="XR1" s="1" t="inlineStr">
+        <is>
+          <t>report</t>
+        </is>
+      </c>
+      <c r="XS1" s="1" t="inlineStr">
+        <is>
+          <t>reveals</t>
+        </is>
+      </c>
+      <c r="XT1" s="1" t="inlineStr">
+        <is>
+          <t>revisited</t>
+        </is>
+      </c>
+      <c r="XU1" s="1" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
+      <c r="XV1" s="1" t="inlineStr">
+        <is>
+          <t>situation</t>
+        </is>
+      </c>
+      <c r="XW1" s="1" t="inlineStr">
+        <is>
+          <t>skillful</t>
+        </is>
+      </c>
+      <c r="XX1" s="1" t="inlineStr">
+        <is>
+          <t>sociology</t>
+        </is>
+      </c>
+      <c r="XY1" s="1" t="inlineStr">
+        <is>
+          <t>strong</t>
+        </is>
+      </c>
+      <c r="XZ1" s="1" t="inlineStr">
+        <is>
+          <t>underserved</t>
+        </is>
+      </c>
+      <c r="YA1" s="1" t="inlineStr">
+        <is>
+          <t>maintains</t>
+        </is>
+      </c>
+      <c r="YB1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="YC1" s="1" t="inlineStr">
+        <is>
+          <t>district</t>
+        </is>
+      </c>
+      <c r="YD1" s="1" t="inlineStr">
+        <is>
+          <t>yielded</t>
+        </is>
+      </c>
+      <c r="YE1" s="1" t="inlineStr">
+        <is>
+          <t>preside</t>
+        </is>
+      </c>
+      <c r="YF1" s="1" t="inlineStr">
+        <is>
+          <t>paper</t>
+        </is>
+      </c>
+      <c r="YG1" s="1" t="inlineStr">
+        <is>
+          <t>originally</t>
+        </is>
+      </c>
+      <c r="YH1" s="1" t="inlineStr">
+        <is>
+          <t>methodologies</t>
+        </is>
+      </c>
+      <c r="YI1" s="1" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="YJ1" s="1" t="inlineStr">
+        <is>
+          <t>likely</t>
+        </is>
+      </c>
+      <c r="YK1" s="1" t="inlineStr">
+        <is>
+          <t>helped</t>
+        </is>
+      </c>
+      <c r="YL1" s="1" t="inlineStr">
+        <is>
           <t>gories-the</t>
         </is>
       </c>
-      <c r="XK1" s="1" t="inlineStr">
-        <is>
-          <t>helped</t>
-        </is>
-      </c>
-      <c r="XL1" s="1" t="inlineStr">
+      <c r="YM1" s="1" t="inlineStr">
+        <is>
+          <t>environment-that</t>
+        </is>
+      </c>
+      <c r="YN1" s="1" t="inlineStr">
+        <is>
+          <t>fosiive</t>
+        </is>
+      </c>
+      <c r="YO1" s="1" t="inlineStr">
+        <is>
+          <t>flexible</t>
+        </is>
+      </c>
+      <c r="YP1" s="1" t="inlineStr">
+        <is>
+          <t>managers</t>
+        </is>
+      </c>
+      <c r="YQ1" s="1" t="inlineStr">
+        <is>
+          <t>links</t>
+        </is>
+      </c>
+      <c r="YR1" s="1" t="inlineStr">
+        <is>
+          <t>earn</t>
+        </is>
+      </c>
+      <c r="YS1" s="1" t="inlineStr">
+        <is>
+          <t>at-risk</t>
+        </is>
+      </c>
+      <c r="YT1" s="1" t="inlineStr">
+        <is>
+          <t>distributed</t>
+        </is>
+      </c>
+      <c r="YU1" s="1" t="inlineStr">
+        <is>
+          <t>decrease</t>
+        </is>
+      </c>
+      <c r="YV1" s="1" t="inlineStr">
+        <is>
+          <t>dating</t>
+        </is>
+      </c>
+      <c r="YW1" s="1" t="inlineStr">
+        <is>
+          <t>compare</t>
+        </is>
+      </c>
+      <c r="YX1" s="1" t="inlineStr">
+        <is>
+          <t>college</t>
+        </is>
+      </c>
+      <c r="YY1" s="1" t="inlineStr">
+        <is>
+          <t>chance</t>
+        </is>
+      </c>
+      <c r="YZ1" s="1" t="inlineStr">
+        <is>
+          <t>back</t>
+        </is>
+      </c>
+      <c r="ZA1" s="1" t="inlineStr">
+        <is>
+          <t>approximately</t>
+        </is>
+      </c>
+      <c r="ZB1" s="1" t="inlineStr">
+        <is>
+          <t>administer</t>
+        </is>
+      </c>
+      <c r="ZC1" s="1" t="inlineStr">
+        <is>
+          <t>above-level</t>
+        </is>
+      </c>
+      <c r="ZD1" s="1" t="inlineStr">
+        <is>
+          <t>3-5</t>
+        </is>
+      </c>
+      <c r="ZE1" s="1" t="inlineStr">
         <is>
           <t>1970s</t>
         </is>
       </c>
-      <c r="XM1" s="1" t="inlineStr">
+      <c r="ZF1" s="1" t="inlineStr">
+        <is>
+          <t>seventh</t>
+        </is>
+      </c>
+      <c r="ZG1" s="1" t="inlineStr">
+        <is>
+          <t>adults</t>
+        </is>
+      </c>
+      <c r="ZH1" s="1" t="inlineStr">
+        <is>
+          <t>bearing</t>
+        </is>
+      </c>
+      <c r="ZI1" s="1" t="inlineStr">
+        <is>
+          <t>knowledge</t>
+        </is>
+      </c>
+      <c r="ZJ1" s="1" t="inlineStr">
+        <is>
+          <t>carry</t>
+        </is>
+      </c>
+      <c r="ZK1" s="1" t="inlineStr">
+        <is>
+          <t>communities</t>
+        </is>
+      </c>
+      <c r="ZL1" s="1" t="inlineStr">
+        <is>
+          <t>decade-long</t>
+        </is>
+      </c>
+      <c r="ZM1" s="1" t="inlineStr">
+        <is>
+          <t>derived</t>
+        </is>
+      </c>
+      <c r="ZN1" s="1" t="inlineStr">
+        <is>
+          <t>differs</t>
+        </is>
+      </c>
+      <c r="ZO1" s="1" t="inlineStr">
+        <is>
+          <t>distribution</t>
+        </is>
+      </c>
+      <c r="ZP1" s="1" t="inlineStr">
+        <is>
+          <t>drawn</t>
+        </is>
+      </c>
+      <c r="ZQ1" s="1" t="inlineStr">
+        <is>
+          <t>emerging</t>
+        </is>
+      </c>
+      <c r="ZR1" s="1" t="inlineStr">
+        <is>
+          <t>enactments</t>
+        </is>
+      </c>
+      <c r="ZS1" s="1" t="inlineStr">
+        <is>
+          <t>engagement</t>
+        </is>
+      </c>
+      <c r="ZT1" s="1" t="inlineStr">
+        <is>
+          <t>established</t>
+        </is>
+      </c>
+      <c r="ZU1" s="1" t="inlineStr">
+        <is>
+          <t>figures</t>
+        </is>
+      </c>
+      <c r="ZV1" s="1" t="inlineStr">
+        <is>
+          <t>following</t>
+        </is>
+      </c>
+      <c r="ZW1" s="1" t="inlineStr">
+        <is>
+          <t>importance</t>
+        </is>
+      </c>
+      <c r="ZX1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="ZY1" s="1" t="inlineStr">
+        <is>
+          <t>suggest</t>
+        </is>
+      </c>
+      <c r="ZZ1" s="1" t="inlineStr">
+        <is>
+          <t>sixth-grade</t>
+        </is>
+      </c>
+      <c r="AAA1" s="1" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="AAB1" s="1" t="inlineStr">
+        <is>
+          <t>complexity</t>
+        </is>
+      </c>
+      <c r="AAC1" s="1" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="AAD1" s="1" t="inlineStr">
+        <is>
+          <t>clear</t>
+        </is>
+      </c>
+      <c r="AAE1" s="1" t="inlineStr">
+        <is>
+          <t>third-</t>
+        </is>
+      </c>
+      <c r="AAF1" s="1" t="inlineStr">
+        <is>
+          <t>assess</t>
+        </is>
+      </c>
+      <c r="AAG1" s="1" t="inlineStr">
+        <is>
+          <t>acquainted</t>
+        </is>
+      </c>
+      <c r="AAH1" s="1" t="inlineStr">
+        <is>
+          <t>average</t>
+        </is>
+      </c>
+      <c r="AAI1" s="1" t="inlineStr">
+        <is>
+          <t>cate-</t>
+        </is>
+      </c>
+      <c r="AAJ1" s="1" t="inlineStr">
+        <is>
+          <t>causal</t>
+        </is>
+      </c>
+      <c r="AAK1" s="1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="AAL1" s="1" t="inlineStr">
+        <is>
+          <t>evolve</t>
+        </is>
+      </c>
+      <c r="AAM1" s="1" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="AAN1" s="1" t="inlineStr">
+        <is>
+          <t>argument</t>
+        </is>
+      </c>
+      <c r="AAO1" s="1" t="inlineStr">
+        <is>
+          <t>asked</t>
+        </is>
+      </c>
+      <c r="AAP1" s="1" t="inlineStr">
+        <is>
+          <t>boys</t>
+        </is>
+      </c>
+      <c r="AAQ1" s="1" t="inlineStr">
+        <is>
+          <t>cogent</t>
+        </is>
+      </c>
+      <c r="AAR1" s="1" t="inlineStr">
+        <is>
+          <t>commit</t>
+        </is>
+      </c>
+      <c r="AAS1" s="1" t="inlineStr">
+        <is>
+          <t>composition</t>
+        </is>
+      </c>
+      <c r="AAT1" s="1" t="inlineStr">
+        <is>
+          <t>construct</t>
+        </is>
+      </c>
+      <c r="AAU1" s="1" t="inlineStr">
+        <is>
+          <t>dramatic</t>
+        </is>
+      </c>
+      <c r="AAV1" s="1" t="inlineStr">
+        <is>
+          <t>curriculum</t>
+        </is>
+      </c>
+      <c r="AAW1" s="1" t="inlineStr">
+        <is>
+          <t>develop</t>
+        </is>
+      </c>
+      <c r="AAX1" s="1" t="inlineStr">
+        <is>
+          <t>focusing</t>
+        </is>
+      </c>
+      <c r="AAY1" s="1" t="inlineStr">
+        <is>
+          <t>gain</t>
+        </is>
+      </c>
+      <c r="AAZ1" s="1" t="inlineStr">
+        <is>
+          <t>studied</t>
+        </is>
+      </c>
+      <c r="ABA1" s="1" t="inlineStr">
+        <is>
+          <t>struggling</t>
+        </is>
+      </c>
+      <c r="ABB1" s="1" t="inlineStr">
+        <is>
+          <t>univariate</t>
+        </is>
+      </c>
+      <c r="ABC1" s="1" t="inlineStr">
+        <is>
+          <t>universities</t>
+        </is>
+      </c>
+      <c r="ABD1" s="1" t="inlineStr">
+        <is>
+          <t>variance</t>
+        </is>
+      </c>
+      <c r="ABE1" s="1" t="inlineStr">
+        <is>
+          <t>seven</t>
+        </is>
+      </c>
+      <c r="ABF1" s="1" t="inlineStr">
+        <is>
+          <t>repeated</t>
+        </is>
+      </c>
+      <c r="ABG1" s="1" t="inlineStr">
+        <is>
+          <t>relationships</t>
+        </is>
+      </c>
+      <c r="ABH1" s="1" t="inlineStr">
+        <is>
+          <t>relate</t>
+        </is>
+      </c>
+      <c r="ABI1" s="1" t="inlineStr">
+        <is>
+          <t>realities</t>
+        </is>
+      </c>
+      <c r="ABJ1" s="1" t="inlineStr">
+        <is>
+          <t>project</t>
+        </is>
+      </c>
+      <c r="ABK1" s="1" t="inlineStr">
+        <is>
+          <t>prior</t>
+        </is>
+      </c>
+      <c r="ABL1" s="1" t="inlineStr">
+        <is>
+          <t>novices</t>
+        </is>
+      </c>
+      <c r="ABM1" s="1" t="inlineStr">
+        <is>
+          <t>modify</t>
+        </is>
+      </c>
+      <c r="ABN1" s="1" t="inlineStr">
+        <is>
+          <t>modifications</t>
+        </is>
+      </c>
+      <c r="ABO1" s="1" t="inlineStr">
+        <is>
+          <t>mentoring</t>
+        </is>
+      </c>
+      <c r="ABP1" s="1" t="inlineStr">
+        <is>
+          <t>meet</t>
+        </is>
+      </c>
+      <c r="ABQ1" s="1" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="ABR1" s="1" t="inlineStr">
+        <is>
+          <t>implement</t>
+        </is>
+      </c>
+      <c r="ABS1" s="1" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
+      <c r="ABT1" s="1" t="inlineStr">
+        <is>
+          <t>awareness</t>
+        </is>
+      </c>
+      <c r="ABU1" s="1" t="inlineStr">
+        <is>
+          <t>examines</t>
+        </is>
+      </c>
+      <c r="ABV1" s="1" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="ABW1" s="1" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="ABX1" s="1" t="inlineStr">
+        <is>
+          <t>uses</t>
+        </is>
+      </c>
+      <c r="ABY1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
-      <c r="XN1" s="1" t="inlineStr">
+      <c r="ABZ1" s="1" t="inlineStr">
+        <is>
+          <t>comparative</t>
+        </is>
+      </c>
+      <c r="ACA1" s="1" t="inlineStr">
+        <is>
+          <t>three-year</t>
+        </is>
+      </c>
+      <c r="ACB1" s="1" t="inlineStr">
+        <is>
+          <t>explaining</t>
+        </is>
+      </c>
+      <c r="ACC1" s="1" t="inlineStr">
+        <is>
+          <t>useful</t>
+        </is>
+      </c>
+      <c r="ACD1" s="1" t="inlineStr">
+        <is>
+          <t>structure</t>
+        </is>
+      </c>
+      <c r="ACE1" s="1" t="inlineStr">
+        <is>
+          <t>spectrum</t>
+        </is>
+      </c>
+      <c r="ACF1" s="1" t="inlineStr">
+        <is>
+          <t>revealed</t>
+        </is>
+      </c>
+      <c r="ACG1" s="1" t="inlineStr">
+        <is>
+          <t>questions</t>
+        </is>
+      </c>
+      <c r="ACH1" s="1" t="inlineStr">
+        <is>
+          <t>present</t>
+        </is>
+      </c>
+      <c r="ACI1" s="1" t="inlineStr">
+        <is>
+          <t>precocious</t>
+        </is>
+      </c>
+      <c r="ACJ1" s="1" t="inlineStr">
         <is>
           <t>fewer</t>
         </is>
       </c>
-      <c r="XO1" s="1" t="inlineStr">
-        <is>
-          <t>adaptation</t>
-        </is>
-      </c>
-      <c r="XP1" s="1" t="inlineStr">
-        <is>
-          <t>underserved</t>
-        </is>
-      </c>
-      <c r="XQ1" s="1" t="inlineStr">
-        <is>
-          <t>flexible</t>
-        </is>
-      </c>
-      <c r="XR1" s="1" t="inlineStr">
-        <is>
-          <t>maintains</t>
-        </is>
-      </c>
-      <c r="XS1" s="1" t="inlineStr">
-        <is>
-          <t>knowledge</t>
-        </is>
-      </c>
-      <c r="XT1" s="1" t="inlineStr">
-        <is>
-          <t>importance</t>
-        </is>
-      </c>
-      <c r="XU1" s="1" t="inlineStr">
-        <is>
-          <t>following</t>
-        </is>
-      </c>
-      <c r="XV1" s="1" t="inlineStr">
-        <is>
-          <t>figures</t>
-        </is>
-      </c>
-      <c r="XW1" s="1" t="inlineStr">
-        <is>
-          <t>established</t>
-        </is>
-      </c>
-      <c r="XX1" s="1" t="inlineStr">
-        <is>
-          <t>engagement</t>
-        </is>
-      </c>
-      <c r="XY1" s="1" t="inlineStr">
-        <is>
-          <t>enactments</t>
-        </is>
-      </c>
-      <c r="XZ1" s="1" t="inlineStr">
-        <is>
-          <t>emerging</t>
-        </is>
-      </c>
-      <c r="YA1" s="1" t="inlineStr">
-        <is>
-          <t>drawn</t>
-        </is>
-      </c>
-      <c r="YB1" s="1" t="inlineStr">
-        <is>
-          <t>distribution</t>
-        </is>
-      </c>
-      <c r="YC1" s="1" t="inlineStr">
-        <is>
-          <t>differs</t>
-        </is>
-      </c>
-      <c r="YD1" s="1" t="inlineStr">
-        <is>
-          <t>derived</t>
-        </is>
-      </c>
-      <c r="YE1" s="1" t="inlineStr">
-        <is>
-          <t>decade-long</t>
-        </is>
-      </c>
-      <c r="YF1" s="1" t="inlineStr">
-        <is>
-          <t>communities</t>
-        </is>
-      </c>
-      <c r="YG1" s="1" t="inlineStr">
-        <is>
-          <t>carry</t>
-        </is>
-      </c>
-      <c r="YH1" s="1" t="inlineStr">
-        <is>
-          <t>bearing</t>
-        </is>
-      </c>
-      <c r="YI1" s="1" t="inlineStr">
-        <is>
-          <t>at-risk</t>
-        </is>
-      </c>
-      <c r="YJ1" s="1" t="inlineStr">
-        <is>
-          <t>links</t>
-        </is>
-      </c>
-      <c r="YK1" s="1" t="inlineStr">
-        <is>
-          <t>managers</t>
-        </is>
-      </c>
-      <c r="YL1" s="1" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="YM1" s="1" t="inlineStr">
-        <is>
-          <t>organizations</t>
-        </is>
-      </c>
-      <c r="YN1" s="1" t="inlineStr">
-        <is>
-          <t>fosiive</t>
-        </is>
-      </c>
-      <c r="YO1" s="1" t="inlineStr">
-        <is>
-          <t>views</t>
-        </is>
-      </c>
-      <c r="YP1" s="1" t="inlineStr">
-        <is>
-          <t>traits</t>
-        </is>
-      </c>
-      <c r="YQ1" s="1" t="inlineStr">
-        <is>
-          <t>these</t>
-        </is>
-      </c>
-      <c r="YR1" s="1" t="inlineStr">
-        <is>
-          <t>strong</t>
-        </is>
-      </c>
-      <c r="YS1" s="1" t="inlineStr">
-        <is>
-          <t>sociology</t>
-        </is>
-      </c>
-      <c r="YT1" s="1" t="inlineStr">
-        <is>
-          <t>skillful</t>
-        </is>
-      </c>
-      <c r="YU1" s="1" t="inlineStr">
-        <is>
-          <t>situation</t>
-        </is>
-      </c>
-      <c r="YV1" s="1" t="inlineStr">
-        <is>
-          <t>roles</t>
-        </is>
-      </c>
-      <c r="YW1" s="1" t="inlineStr">
-        <is>
-          <t>revisited</t>
-        </is>
-      </c>
-      <c r="YX1" s="1" t="inlineStr">
-        <is>
-          <t>reveals</t>
-        </is>
-      </c>
-      <c r="YY1" s="1" t="inlineStr">
-        <is>
-          <t>report</t>
-        </is>
-      </c>
-      <c r="YZ1" s="1" t="inlineStr">
-        <is>
-          <t>recent</t>
-        </is>
-      </c>
-      <c r="ZA1" s="1" t="inlineStr">
-        <is>
-          <t>psychology</t>
-        </is>
-      </c>
-      <c r="ZB1" s="1" t="inlineStr">
-        <is>
-          <t>promoted</t>
-        </is>
-      </c>
-      <c r="ZC1" s="1" t="inlineStr">
-        <is>
-          <t>power</t>
-        </is>
-      </c>
-      <c r="ZD1" s="1" t="inlineStr">
-        <is>
-          <t>out-of-school</t>
-        </is>
-      </c>
-      <c r="ZE1" s="1" t="inlineStr">
-        <is>
-          <t>adults</t>
-        </is>
-      </c>
-      <c r="ZF1" s="1" t="inlineStr">
-        <is>
-          <t>examinations</t>
-        </is>
-      </c>
-      <c r="ZG1" s="1" t="inlineStr">
-        <is>
-          <t>variance</t>
-        </is>
-      </c>
-      <c r="ZH1" s="1" t="inlineStr">
-        <is>
-          <t>area</t>
-        </is>
-      </c>
-      <c r="ZI1" s="1" t="inlineStr">
-        <is>
-          <t>suggest</t>
-        </is>
-      </c>
-      <c r="ZJ1" s="1" t="inlineStr">
-        <is>
-          <t>studied</t>
-        </is>
-      </c>
-      <c r="ZK1" s="1" t="inlineStr">
-        <is>
-          <t>struggling</t>
-        </is>
-      </c>
-      <c r="ZL1" s="1" t="inlineStr">
-        <is>
-          <t>seven</t>
-        </is>
-      </c>
-      <c r="ZM1" s="1" t="inlineStr">
-        <is>
-          <t>qualifying</t>
-        </is>
-      </c>
-      <c r="ZN1" s="1" t="inlineStr">
-        <is>
-          <t>repeated</t>
-        </is>
-      </c>
-      <c r="ZO1" s="1" t="inlineStr">
-        <is>
-          <t>relationships</t>
-        </is>
-      </c>
-      <c r="ZP1" s="1" t="inlineStr">
-        <is>
-          <t>relate</t>
-        </is>
-      </c>
-      <c r="ZQ1" s="1" t="inlineStr">
-        <is>
-          <t>raising</t>
-        </is>
-      </c>
-      <c r="ZR1" s="1" t="inlineStr">
-        <is>
-          <t>realities</t>
-        </is>
-      </c>
-      <c r="ZS1" s="1" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="ZT1" s="1" t="inlineStr">
-        <is>
-          <t>prior</t>
-        </is>
-      </c>
-      <c r="ZU1" s="1" t="inlineStr">
-        <is>
-          <t>methodologies</t>
-        </is>
-      </c>
-      <c r="ZV1" s="1" t="inlineStr">
-        <is>
-          <t>rare</t>
-        </is>
-      </c>
-      <c r="ZW1" s="1" t="inlineStr">
-        <is>
-          <t>novices</t>
-        </is>
-      </c>
-      <c r="ZX1" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="ZY1" s="1" t="inlineStr">
-        <is>
-          <t>three-year</t>
-        </is>
-      </c>
-      <c r="ZZ1" s="1" t="inlineStr">
-        <is>
-          <t>positives</t>
-        </is>
-      </c>
-      <c r="AAA1" s="1" t="inlineStr">
-        <is>
-          <t>in-grade</t>
-        </is>
-      </c>
-      <c r="AAB1" s="1" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
-      </c>
-      <c r="AAC1" s="1" t="inlineStr">
-        <is>
-          <t>entrance</t>
-        </is>
-      </c>
-      <c r="AAD1" s="1" t="inlineStr">
-        <is>
-          <t>establishing</t>
-        </is>
-      </c>
-      <c r="AAE1" s="1" t="inlineStr">
-        <is>
-          <t>example</t>
-        </is>
-      </c>
-      <c r="AAF1" s="1" t="inlineStr">
-        <is>
-          <t>favourably</t>
-        </is>
-      </c>
-      <c r="AAG1" s="1" t="inlineStr">
-        <is>
-          <t>guidelines</t>
-        </is>
-      </c>
-      <c r="AAH1" s="1" t="inlineStr">
-        <is>
-          <t>indicate</t>
-        </is>
-      </c>
-      <c r="AAI1" s="1" t="inlineStr">
-        <is>
-          <t>our</t>
-        </is>
-      </c>
-      <c r="AAJ1" s="1" t="inlineStr">
-        <is>
-          <t>indicates</t>
-        </is>
-      </c>
-      <c r="AAK1" s="1" t="inlineStr">
-        <is>
-          <t>negatives</t>
-        </is>
-      </c>
-      <c r="AAL1" s="1" t="inlineStr">
-        <is>
-          <t>normally</t>
-        </is>
-      </c>
-      <c r="AAM1" s="1" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AAN1" s="1" t="inlineStr">
-        <is>
-          <t>universities</t>
-        </is>
-      </c>
-      <c r="AAO1" s="1" t="inlineStr">
-        <is>
-          <t>univariate</t>
-        </is>
-      </c>
-      <c r="AAP1" s="1" t="inlineStr">
-        <is>
-          <t>modify</t>
-        </is>
-      </c>
-      <c r="AAQ1" s="1" t="inlineStr">
-        <is>
-          <t>modifications</t>
-        </is>
-      </c>
-      <c r="AAR1" s="1" t="inlineStr">
-        <is>
-          <t>mentoring</t>
-        </is>
-      </c>
-      <c r="AAS1" s="1" t="inlineStr">
-        <is>
-          <t>comparative</t>
-        </is>
-      </c>
-      <c r="AAT1" s="1" t="inlineStr">
-        <is>
-          <t>paper</t>
-        </is>
-      </c>
-      <c r="AAU1" s="1" t="inlineStr">
-        <is>
-          <t>third-</t>
-        </is>
-      </c>
-      <c r="AAV1" s="1" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="AAW1" s="1" t="inlineStr">
-        <is>
-          <t>uses</t>
-        </is>
-      </c>
-      <c r="AAX1" s="1" t="inlineStr">
-        <is>
-          <t>very</t>
-        </is>
-      </c>
-      <c r="AAY1" s="1" t="inlineStr">
-        <is>
-          <t>preside</t>
-        </is>
-      </c>
-      <c r="AAZ1" s="1" t="inlineStr">
-        <is>
-          <t>causal</t>
-        </is>
-      </c>
-      <c r="ABA1" s="1" t="inlineStr">
-        <is>
-          <t>sixth-grade</t>
-        </is>
-      </c>
-      <c r="ABB1" s="1" t="inlineStr">
-        <is>
-          <t>environment-that</t>
-        </is>
-      </c>
-      <c r="ABC1" s="1" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="ABD1" s="1" t="inlineStr">
-        <is>
-          <t>cate-</t>
-        </is>
-      </c>
-      <c r="ABE1" s="1" t="inlineStr">
-        <is>
-          <t>during</t>
-        </is>
-      </c>
-      <c r="ABF1" s="1" t="inlineStr">
-        <is>
-          <t>district</t>
-        </is>
-      </c>
-      <c r="ABG1" s="1" t="inlineStr">
-        <is>
-          <t>yielded</t>
-        </is>
-      </c>
-      <c r="ABH1" s="1" t="inlineStr">
-        <is>
-          <t>acquainted</t>
-        </is>
-      </c>
-      <c r="ABI1" s="1" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="ABJ1" s="1" t="inlineStr">
-        <is>
-          <t>meet</t>
-        </is>
-      </c>
-      <c r="ABK1" s="1" t="inlineStr">
-        <is>
-          <t>curriculum</t>
-        </is>
-      </c>
-      <c r="ABL1" s="1" t="inlineStr">
-        <is>
-          <t>intervention</t>
-        </is>
-      </c>
-      <c r="ABM1" s="1" t="inlineStr">
-        <is>
-          <t>implement</t>
-        </is>
-      </c>
-      <c r="ABN1" s="1" t="inlineStr">
-        <is>
-          <t>gain</t>
-        </is>
-      </c>
-      <c r="ABO1" s="1" t="inlineStr">
-        <is>
-          <t>focusing</t>
-        </is>
-      </c>
-      <c r="ABP1" s="1" t="inlineStr">
-        <is>
-          <t>requirements</t>
-        </is>
-      </c>
-      <c r="ABQ1" s="1" t="inlineStr">
-        <is>
-          <t>develop</t>
-        </is>
-      </c>
-      <c r="ABR1" s="1" t="inlineStr">
-        <is>
-          <t>complexity</t>
-        </is>
-      </c>
-      <c r="ABS1" s="1" t="inlineStr">
-        <is>
-          <t>assess</t>
-        </is>
-      </c>
-      <c r="ABT1" s="1" t="inlineStr">
-        <is>
-          <t>completion</t>
-        </is>
-      </c>
-      <c r="ABU1" s="1" t="inlineStr">
-        <is>
-          <t>clear</t>
-        </is>
-      </c>
-      <c r="ABV1" s="1" t="inlineStr">
-        <is>
-          <t>score</t>
-        </is>
-      </c>
-      <c r="ABW1" s="1" t="inlineStr">
-        <is>
-          <t>seventh</t>
-        </is>
-      </c>
-      <c r="ABX1" s="1" t="inlineStr">
-        <is>
-          <t>awareness</t>
-        </is>
-      </c>
-      <c r="ABY1" s="1" t="inlineStr">
-        <is>
-          <t>originally</t>
-        </is>
-      </c>
-      <c r="ABZ1" s="1" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="ACA1" s="1" t="inlineStr">
-        <is>
-          <t>average</t>
-        </is>
-      </c>
-      <c r="ACB1" s="1" t="inlineStr">
-        <is>
-          <t>argument</t>
-        </is>
-      </c>
-      <c r="ACC1" s="1" t="inlineStr">
-        <is>
-          <t>distributed</t>
-        </is>
-      </c>
-      <c r="ACD1" s="1" t="inlineStr">
-        <is>
-          <t>decrease</t>
-        </is>
-      </c>
-      <c r="ACE1" s="1" t="inlineStr">
+      <c r="ACK1" s="1" t="inlineStr">
+        <is>
+          <t>musically</t>
+        </is>
+      </c>
+      <c r="ACL1" s="1" t="inlineStr">
+        <is>
+          <t>middle</t>
+        </is>
+      </c>
+      <c r="ACM1" s="1" t="inlineStr">
+        <is>
+          <t>mediate</t>
+        </is>
+      </c>
+      <c r="ACN1" s="1" t="inlineStr">
+        <is>
+          <t>howard</t>
+        </is>
+      </c>
+      <c r="ACO1" s="1" t="inlineStr">
+        <is>
+          <t>mechanisms</t>
+        </is>
+      </c>
+      <c r="ACP1" s="1" t="inlineStr">
+        <is>
+          <t>individually</t>
+        </is>
+      </c>
+      <c r="ACQ1" s="1" t="inlineStr">
         <is>
           <t>inherent</t>
         </is>
       </c>
-      <c r="ACF1" s="1" t="inlineStr">
+      <c r="ACR1" s="1" t="inlineStr">
         <is>
           <t>makes</t>
         </is>
       </c>
-      <c r="ACG1" s="1" t="inlineStr">
+      <c r="ACS1" s="1" t="inlineStr">
         <is>
           <t>manifest</t>
         </is>
       </c>
-      <c r="ACH1" s="1" t="inlineStr">
-        <is>
-          <t>mechanisms</t>
-        </is>
-      </c>
-      <c r="ACI1" s="1" t="inlineStr">
-        <is>
-          <t>mediate</t>
-        </is>
-      </c>
-      <c r="ACJ1" s="1" t="inlineStr">
-        <is>
-          <t>middle</t>
-        </is>
-      </c>
-      <c r="ACK1" s="1" t="inlineStr">
-        <is>
-          <t>dating</t>
-        </is>
-      </c>
-      <c r="ACL1" s="1" t="inlineStr">
-        <is>
-          <t>musically</t>
-        </is>
-      </c>
-      <c r="ACM1" s="1" t="inlineStr">
-        <is>
-          <t>compare</t>
-        </is>
-      </c>
-      <c r="ACN1" s="1" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="ACO1" s="1" t="inlineStr">
-        <is>
-          <t>precocious</t>
-        </is>
-      </c>
-      <c r="ACP1" s="1" t="inlineStr">
-        <is>
-          <t>college</t>
-        </is>
-      </c>
-      <c r="ACQ1" s="1" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="ACR1" s="1" t="inlineStr">
-        <is>
-          <t>questions</t>
-        </is>
-      </c>
-      <c r="ACS1" s="1" t="inlineStr">
-        <is>
-          <t>revealed</t>
-        </is>
-      </c>
       <c r="ACT1" s="1" t="inlineStr">
         <is>
-          <t>spectrum</t>
+          <t>product</t>
         </is>
       </c>
       <c r="ACU1" s="1" t="inlineStr">
         <is>
-          <t>structure</t>
+          <t>discussed</t>
         </is>
       </c>
       <c r="ACV1" s="1" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>resources</t>
         </is>
       </c>
       <c r="ACW1" s="1" t="inlineStr">
         <is>
-          <t>useful</t>
+          <t>rapid</t>
         </is>
       </c>
       <c r="ACX1" s="1" t="inlineStr">
         <is>
-          <t>asked</t>
+          <t>emphasizing</t>
         </is>
       </c>
       <c r="ACY1" s="1" t="inlineStr">
         <is>
-          <t>above-level</t>
+          <t>prodigies</t>
         </is>
       </c>
       <c r="ACZ1" s="1" t="inlineStr">
         <is>
-          <t>approximately</t>
+          <t>future</t>
         </is>
       </c>
       <c r="ADA1" s="1" t="inlineStr">
         <is>
-          <t>individually</t>
+          <t>prodigious</t>
         </is>
       </c>
       <c r="ADB1" s="1" t="inlineStr">
         <is>
-          <t>chance</t>
+          <t>unique</t>
         </is>
       </c>
       <c r="ADC1" s="1" t="inlineStr">
         <is>
-          <t>earn</t>
+          <t>ongoing</t>
         </is>
       </c>
       <c r="ADD1" s="1" t="inlineStr">
         <is>
-          <t>event</t>
+          <t>therefore</t>
         </is>
       </c>
       <c r="ADE1" s="1" t="inlineStr">
         <is>
-          <t>boys</t>
+          <t>decisions</t>
         </is>
       </c>
       <c r="ADF1" s="1" t="inlineStr">
         <is>
-          <t>effectively</t>
+          <t>viewed</t>
         </is>
       </c>
       <c r="ADG1" s="1" t="inlineStr">
         <is>
-          <t>eligibility</t>
+          <t>world</t>
         </is>
       </c>
       <c r="ADH1" s="1" t="inlineStr">
         <is>
-          <t>cogent</t>
+          <t>directions</t>
         </is>
       </c>
       <c r="ADI1" s="1" t="inlineStr">
         <is>
-          <t>commit</t>
+          <t>mental</t>
         </is>
       </c>
       <c r="ADJ1" s="1" t="inlineStr">
         <is>
-          <t>composition</t>
+          <t>date</t>
         </is>
       </c>
       <c r="ADK1" s="1" t="inlineStr">
         <is>
-          <t>construct</t>
+          <t>concerns</t>
         </is>
       </c>
       <c r="ADL1" s="1" t="inlineStr">
         <is>
-          <t>likely</t>
+          <t>concern</t>
         </is>
       </c>
       <c r="ADM1" s="1" t="inlineStr">
         <is>
-          <t>dramatic</t>
+          <t>caused</t>
         </is>
       </c>
       <c r="ADN1" s="1" t="inlineStr">
         <is>
-          <t>administer</t>
+          <t>application</t>
         </is>
       </c>
       <c r="ADO1" s="1" t="inlineStr">
         <is>
-          <t>eighth-grade</t>
+          <t>addressing</t>
         </is>
       </c>
       <c r="ADP1" s="1" t="inlineStr">
         <is>
-          <t>evolve</t>
+          <t>regard</t>
         </is>
       </c>
       <c r="ADQ1" s="1" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>great</t>
         </is>
       </c>
       <c r="ADR1" s="1" t="inlineStr">
         <is>
-          <t>he</t>
+          <t>generated</t>
         </is>
       </c>
       <c r="ADS1" s="1" t="inlineStr">
         <is>
-          <t>howard</t>
+          <t>mechanism</t>
         </is>
       </c>
       <c r="ADT1" s="1" t="inlineStr">
         <is>
-          <t>explaining</t>
+          <t>construction</t>
         </is>
       </c>
       <c r="ADU1" s="1" t="inlineStr">
         <is>
-          <t>examines</t>
+          <t>purpose</t>
         </is>
       </c>
       <c r="ADV1" s="1" t="inlineStr">
         <is>
+          <t>sparse</t>
+        </is>
+      </c>
+      <c r="ADW1" s="1" t="inlineStr">
+        <is>
+          <t>relations</t>
+        </is>
+      </c>
+      <c r="ADX1" s="1" t="inlineStr">
+        <is>
+          <t>leads</t>
+        </is>
+      </c>
+      <c r="ADY1" s="1" t="inlineStr">
+        <is>
+          <t>methods</t>
+        </is>
+      </c>
+      <c r="ADZ1" s="1" t="inlineStr">
+        <is>
+          <t>linguistically</t>
+        </is>
+      </c>
+      <c r="AEA1" s="1" t="inlineStr">
+        <is>
+          <t>according</t>
+        </is>
+      </c>
+      <c r="AEB1" s="1" t="inlineStr">
+        <is>
           <t>interested</t>
         </is>
       </c>
-      <c r="ADW1" s="1" t="inlineStr">
-        <is>
-          <t>concern</t>
-        </is>
-      </c>
-      <c r="ADX1" s="1" t="inlineStr">
-        <is>
-          <t>product</t>
-        </is>
-      </c>
-      <c r="ADY1" s="1" t="inlineStr">
-        <is>
-          <t>prodigious</t>
-        </is>
-      </c>
-      <c r="ADZ1" s="1" t="inlineStr">
-        <is>
-          <t>prodigies</t>
-        </is>
-      </c>
-      <c r="AEA1" s="1" t="inlineStr">
-        <is>
-          <t>resources</t>
-        </is>
-      </c>
-      <c r="AEB1" s="1" t="inlineStr">
-        <is>
-          <t>concerns</t>
-        </is>
-      </c>
       <c r="AEC1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>formed</t>
         </is>
       </c>
       <c r="AED1" s="1" t="inlineStr">
         <is>
-          <t>mental</t>
+          <t>essence</t>
         </is>
       </c>
       <c r="AEE1" s="1" t="inlineStr">
         <is>
-          <t>mechanism</t>
+          <t>explains</t>
         </is>
       </c>
       <c r="AEF1" s="1" t="inlineStr">
         <is>
-          <t>rapid</t>
+          <t>expresses</t>
         </is>
       </c>
       <c r="AEG1" s="1" t="inlineStr">
         <is>
-          <t>unique</t>
+          <t>importantly</t>
         </is>
       </c>
       <c r="AEH1" s="1" t="inlineStr">
         <is>
-          <t>sparse</t>
+          <t>growth</t>
         </is>
       </c>
       <c r="AEI1" s="1" t="inlineStr">
         <is>
-          <t>therefore</t>
+          <t>fundamental</t>
         </is>
       </c>
       <c r="AEJ1" s="1" t="inlineStr">
         <is>
-          <t>emphasizing</t>
+          <t>extremely</t>
         </is>
       </c>
       <c r="AEK1" s="1" t="inlineStr">
         <is>
-          <t>viewed</t>
+          <t>exceptional</t>
         </is>
       </c>
       <c r="AEL1" s="1" t="inlineStr">
         <is>
-          <t>world</t>
+          <t>reports</t>
         </is>
       </c>
       <c r="AEM1" s="1" t="inlineStr">
         <is>
-          <t>caused</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="AEN1" s="1" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>477</t>
         </is>
       </c>
       <c r="AEO1" s="1" t="inlineStr">
         <is>
-          <t>great</t>
+          <t>whereas</t>
         </is>
       </c>
       <c r="AEP1" s="1" t="inlineStr">
         <is>
-          <t>addressing</t>
+          <t>version</t>
         </is>
       </c>
       <c r="AEQ1" s="1" t="inlineStr">
         <is>
-          <t>leads</t>
+          <t>schofock</t>
         </is>
       </c>
       <c r="AER1" s="1" t="inlineStr">
         <is>
-          <t>decisions</t>
+          <t>levine</t>
         </is>
       </c>
       <c r="AES1" s="1" t="inlineStr">
         <is>
-          <t>growth</t>
+          <t>ramirez</t>
         </is>
       </c>
       <c r="AET1" s="1" t="inlineStr">
         <is>
-          <t>according</t>
+          <t>modified</t>
         </is>
       </c>
       <c r="AEU1" s="1" t="inlineStr">
         <is>
-          <t>future</t>
+          <t>increased</t>
         </is>
       </c>
       <c r="AEV1" s="1" t="inlineStr">
         <is>
-          <t>ongoing</t>
+          <t>anesko</t>
         </is>
       </c>
       <c r="AEW1" s="1" t="inlineStr">
         <is>
-          <t>linguistically</t>
+          <t>assignments</t>
         </is>
       </c>
       <c r="AEX1" s="1" t="inlineStr">
         <is>
-          <t>importantly</t>
+          <t>beyond</t>
         </is>
       </c>
       <c r="AEY1" s="1" t="inlineStr">
         <is>
-          <t>purpose</t>
+          <t>consisted</t>
         </is>
       </c>
       <c r="AEZ1" s="1" t="inlineStr">
         <is>
-          <t>regard</t>
+          <t>estimate</t>
         </is>
       </c>
       <c r="AFA1" s="1" t="inlineStr">
         <is>
-          <t>fundamental</t>
+          <t>gave</t>
         </is>
       </c>
       <c r="AFB1" s="1" t="inlineStr">
         <is>
-          <t>relations</t>
-        </is>
-      </c>
-      <c r="AFC1" s="1" t="inlineStr">
-        <is>
-          <t>discussed</t>
-        </is>
-      </c>
-      <c r="AFD1" s="1" t="inlineStr">
-        <is>
-          <t>generated</t>
-        </is>
-      </c>
-      <c r="AFE1" s="1" t="inlineStr">
-        <is>
-          <t>directions</t>
-        </is>
-      </c>
-      <c r="AFF1" s="1" t="inlineStr">
-        <is>
-          <t>construction</t>
-        </is>
-      </c>
-      <c r="AFG1" s="1" t="inlineStr">
-        <is>
-          <t>essence</t>
-        </is>
-      </c>
-      <c r="AFH1" s="1" t="inlineStr">
-        <is>
-          <t>exceptional</t>
-        </is>
-      </c>
-      <c r="AFI1" s="1" t="inlineStr">
-        <is>
-          <t>methods</t>
-        </is>
-      </c>
-      <c r="AFJ1" s="1" t="inlineStr">
-        <is>
-          <t>expresses</t>
-        </is>
-      </c>
-      <c r="AFK1" s="1" t="inlineStr">
-        <is>
-          <t>extremely</t>
-        </is>
-      </c>
-      <c r="AFL1" s="1" t="inlineStr">
-        <is>
-          <t>formed</t>
-        </is>
-      </c>
-      <c r="AFM1" s="1" t="inlineStr">
-        <is>
-          <t>explains</t>
-        </is>
-      </c>
-      <c r="AFN1" s="1" t="inlineStr">
-        <is>
-          <t>schofock</t>
-        </is>
-      </c>
-      <c r="AFO1" s="1" t="inlineStr">
-        <is>
-          <t>gave</t>
-        </is>
-      </c>
-      <c r="AFP1" s="1" t="inlineStr">
-        <is>
-          <t>reports</t>
-        </is>
-      </c>
-      <c r="AFQ1" s="1" t="inlineStr">
-        <is>
-          <t>ramirez</t>
-        </is>
-      </c>
-      <c r="AFR1" s="1" t="inlineStr">
-        <is>
-          <t>modified</t>
-        </is>
-      </c>
-      <c r="AFS1" s="1" t="inlineStr">
-        <is>
-          <t>levine</t>
-        </is>
-      </c>
-      <c r="AFT1" s="1" t="inlineStr">
-        <is>
-          <t>increased</t>
-        </is>
-      </c>
-      <c r="AFU1" s="1" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="AFV1" s="1" t="inlineStr">
-        <is>
-          <t>estimate</t>
-        </is>
-      </c>
-      <c r="AFW1" s="1" t="inlineStr">
-        <is>
-          <t>consisted</t>
-        </is>
-      </c>
-      <c r="AFX1" s="1" t="inlineStr">
-        <is>
           <t>completing</t>
-        </is>
-      </c>
-      <c r="AFY1" s="1" t="inlineStr">
-        <is>
-          <t>beyond</t>
-        </is>
-      </c>
-      <c r="AFZ1" s="1" t="inlineStr">
-        <is>
-          <t>assignments</t>
-        </is>
-      </c>
-      <c r="AGA1" s="1" t="inlineStr">
-        <is>
-          <t>anesko</t>
-        </is>
-      </c>
-      <c r="AGB1" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AGC1" s="1" t="inlineStr">
-        <is>
-          <t>477</t>
-        </is>
-      </c>
-      <c r="AGD1" s="1" t="inlineStr">
-        <is>
-          <t>version</t>
-        </is>
-      </c>
-      <c r="AGE1" s="1" t="inlineStr">
-        <is>
-          <t>whereas</t>
         </is>
       </c>
     </row>
@@ -4757,58 +4612,58 @@
         <v>1999</v>
       </c>
       <c r="D2" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="E2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="F2" t="n">
         <v>1.19</v>
       </c>
       <c r="G2" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="H2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.97</v>
-      </c>
       <c r="J2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.92</v>
       </c>
-      <c r="K2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
       <c r="L2" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="O2" t="n">
         <v>0.75</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.7300000000000001</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.7200000000000001</v>
-      </c>
       <c r="P2" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.71</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="R2" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="S2" t="n">
-        <v>0.68</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="U2" t="n">
-        <v>0.66</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="V2" t="n">
         <v>0.65</v>
@@ -4817,37 +4672,37 @@
         <v>0.65</v>
       </c>
       <c r="X2" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.65</v>
+        <v>0.58</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.63</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="AI2" t="n">
         <v>0.54</v>
@@ -4856,7 +4711,7 @@
         <v>0.54</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="AL2" t="n">
         <v>0.53</v>
@@ -4871,7 +4726,7 @@
         <v>0.53</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.52</v>
@@ -4880,37 +4735,37 @@
         <v>0.52</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="BD2" t="n">
         <v>0.44</v>
@@ -4922,85 +4777,85 @@
         <v>0.44</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.44</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.4399999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CH2" t="n">
         <v>0.34</v>
@@ -5009,7 +4864,7 @@
         <v>0.34</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="CK2" t="n">
         <v>0.33</v>
@@ -5018,37 +4873,37 @@
         <v>0.33</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.32</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="CX2" t="n">
         <v>0.29</v>
@@ -5060,55 +4915,55 @@
         <v>0.29</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="DR2" t="n">
         <v>0.25</v>
@@ -5123,16 +4978,16 @@
         <v>0.25</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="DZ2" t="n">
         <v>0.24</v>
@@ -5144,7 +4999,7 @@
         <v>0.24</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="ED2" t="n">
         <v>0.23</v>
@@ -5180,7 +5035,7 @@
         <v>0.23</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="EP2" t="n">
         <v>0.22</v>
@@ -5225,16 +5080,16 @@
         <v>0.22</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="FH2" t="n">
         <v>0.21</v>
@@ -5282,13 +5137,13 @@
         <v>0.21</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="FZ2" t="n">
         <v>0.2</v>
@@ -5330,10 +5185,10 @@
         <v>0.2</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="GO2" t="n">
         <v>0.19</v>
@@ -5354,25 +5209,25 @@
         <v>0.19</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="HB2" t="n">
         <v>0.18</v>
@@ -5405,7 +5260,7 @@
         <v>0.18</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="HM2" t="n">
         <v>0.17</v>
@@ -5528,19 +5383,19 @@
         <v>0.17</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JB2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JD2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JF2" t="n">
         <v>0.16</v>
@@ -5612,10 +5467,10 @@
         <v>0.16</v>
       </c>
       <c r="KC2" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="KD2" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="KE2" t="n">
         <v>0.15</v>
@@ -5669,22 +5524,22 @@
         <v>0.15</v>
       </c>
       <c r="KV2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="KX2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="KZ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LB2" t="n">
         <v>0.14</v>
@@ -5705,37 +5560,37 @@
         <v>0.14</v>
       </c>
       <c r="LH2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="LL2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="LP2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="LR2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="LS2" t="n">
         <v>0.12</v>
@@ -5843,40 +5698,40 @@
         <v>0.12</v>
       </c>
       <c r="NB2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="NC2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="NE2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="NG2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="NH2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="NI2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="NJ2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="NK2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="NN2" t="n">
         <v>0.11</v>
@@ -6101,49 +5956,49 @@
         <v>0.11</v>
       </c>
       <c r="QJ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="QK2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="QL2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="QM2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="QN2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="QO2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="QP2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="QQ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="QS2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="QU2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="QV2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="QY2" t="n">
         <v>0.1</v>
@@ -6584,67 +6439,67 @@
         <v>0.1</v>
       </c>
       <c r="WO2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WP2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WQ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WR2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WS2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WT2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WU2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WV2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WW2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WX2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WY2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WZ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XA2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XB2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XC2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XD2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XE2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XF2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XG2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XH2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XI2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XJ2" t="n">
         <v>0.09</v>
@@ -7067,88 +6922,88 @@
         <v>0.09</v>
       </c>
       <c r="ACT2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ACU2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ACV2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ACW2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ACX2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ACY2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ACZ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADA2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADB2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADC2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADD2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADE2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADF2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADG2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADH2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADI2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADJ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADK2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADL2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADM2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADN2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADO2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADP2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADQ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADR2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADS2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADT2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADU2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ADV2" t="n">
         <v>0.08</v>
@@ -7199,141 +7054,54 @@
         <v>0.08</v>
       </c>
       <c r="AEL2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="AEM2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="AEN2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="AEO2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="AEP2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="AEQ2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="AER2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="AES2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="AET2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="AEU2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="AEV2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="AEW2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="AEX2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="AEY2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="AEZ2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="AFA2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="AFB2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AFC2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AFD2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AFE2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AFF2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AFG2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AFH2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AFI2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AFJ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AFK2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AFL2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AFM2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AFN2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AFO2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AFP2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AFQ2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AFR2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AFS2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AFT2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AFU2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AFV2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AFW2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AFX2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AFY2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AFZ2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AGA2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AGB2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AGC2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AGD2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AGE2" t="n">
         <v>0.05</v>
       </c>
     </row>
